--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.2169480385347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.12018204701069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146108</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363781</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>38.96319309123408</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.12018204701068</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617555</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.9631930912341</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731403</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.0141422503843</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575429</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,7 +426,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -431,7 +434,7 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -439,7 +442,7 @@
         <v>26.21694803853472</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -447,7 +450,7 @@
         <v>26.12018204701068</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -455,7 +458,7 @@
         <v>26.78544435617555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -463,7 +466,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -471,7 +474,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -479,7 +482,7 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -487,7 +490,7 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -495,7 +498,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -503,7 +506,7 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -511,7 +514,7 @@
         <v>39.19167637503955</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -519,7 +522,7 @@
         <v>38.9631930912341</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,197 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>28.12521615656194</v>
+      </c>
+      <c r="C2">
+        <v>21.3278785389121</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8.297702218365682</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2">
+        <v>2.039048175391271</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>21.12588193138679</v>
+      </c>
+      <c r="N2">
+        <v>14.34118855872597</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>26.01782312317452</v>
+      </c>
+      <c r="C3">
+        <v>19.71386823615023</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>7.834123598266195</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.05507026577245</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>19.55567768796301</v>
+      </c>
+      <c r="N3">
+        <v>14.3913731137426</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>24.67143221407581</v>
+      </c>
+      <c r="C4">
+        <v>18.6831493429305</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7.547517029414108</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.065004145177338</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>18.55143265563929</v>
+      </c>
+      <c r="N4">
+        <v>14.43040927058935</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>24.10911012517455</v>
+      </c>
+      <c r="C5">
+        <v>18.25271270322466</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7.430252574416642</v>
+      </c>
       <c r="F5">
         <v>26.21694803853472</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5">
+        <v>2.069084087416091</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>18.13169559129241</v>
+      </c>
+      <c r="N5">
+        <v>14.44820768020466</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>24.01489977212623</v>
+      </c>
+      <c r="C6">
+        <v>18.18059882441294</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>7.41075398055515</v>
+      </c>
       <c r="F6">
         <v>26.12018204701068</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6">
+        <v>2.069763684857637</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>18.06135335613269</v>
+      </c>
+      <c r="N6">
+        <v>14.4512725159306</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>24.6639044066444</v>
+      </c>
+      <c r="C7">
+        <v>18.67738699929298</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>7.545937401951694</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.78544435617551</v>
+      </c>
+      <c r="G7">
+        <v>2.065059030534765</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>18.54581495257563</v>
+      </c>
+      <c r="N7">
+        <v>14.43064186879141</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>27.40916534531143</v>
+      </c>
+      <c r="C8">
+        <v>20.77933661265087</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>8.138271021733837</v>
+      </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8">
+        <v>2.044557496224124</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>20.59254561223696</v>
+      </c>
+      <c r="N8">
+        <v>14.3566723970372</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>32.40206949368052</v>
+      </c>
+      <c r="C9">
+        <v>24.60861855915057</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>9.290870859971973</v>
+      </c>
       <c r="F9">
-        <v>34.4587799414611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.45877994148619</v>
+      </c>
+      <c r="G9">
+        <v>2.004715975370999</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>24.30888545515104</v>
+      </c>
+      <c r="N9">
+        <v>14.28610346631437</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>35.87600601515163</v>
+      </c>
+      <c r="C10">
+        <v>27.2812866275592</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10.29616973950204</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.72874519847369</v>
+      </c>
+      <c r="G10">
+        <v>1.974987696725668</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>26.8930778247663</v>
+      </c>
+      <c r="N10">
+        <v>14.29497157826611</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>37.4269060752239</v>
+      </c>
+      <c r="C11">
+        <v>28.47743129731495</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10.74576277652743</v>
+      </c>
       <c r="F11">
-        <v>39.14805722232859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>39.1480572223286</v>
+      </c>
+      <c r="G11">
+        <v>1.96116843893181</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>28.04688951180842</v>
+      </c>
+      <c r="N11">
+        <v>14.31650240199213</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>38.0113285763646</v>
+      </c>
+      <c r="C12">
+        <v>28.92871276163384</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>10.91532434479464</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.67592721363786</v>
+      </c>
+      <c r="G12">
+        <v>1.955871812208784</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>28.48173751807152</v>
+      </c>
+      <c r="N12">
+        <v>14.32762507378655</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>37.8855652270147</v>
+      </c>
+      <c r="C13">
+        <v>28.83157425673241</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>10.87882914355003</v>
+      </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.56266403258223</v>
+      </c>
+      <c r="G13">
+        <v>1.957015752817491</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>28.38815813640533</v>
+      </c>
+      <c r="N13">
+        <v>14.32508928293499</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>37.47503544280568</v>
+      </c>
+      <c r="C14">
+        <v>28.51458442428598</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>10.75972377208086</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.19167637503956</v>
+      </c>
+      <c r="G14">
+        <v>1.960734094934169</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>28.08269941980956</v>
+      </c>
+      <c r="N14">
+        <v>14.31735501965391</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>37.2232461626034</v>
+      </c>
+      <c r="C15">
+        <v>28.3202400759098</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>10.6866926187226</v>
+      </c>
       <c r="F15">
-        <v>38.9631930912341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.96319309154518</v>
+      </c>
+      <c r="G15">
+        <v>1.963002697862891</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>27.89536218192818</v>
+      </c>
+      <c r="N15">
+        <v>14.31301934511439</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>35.77416848246176</v>
+      </c>
+      <c r="C16">
+        <v>27.2028129053179</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>10.26666627139807</v>
+      </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1.975883176625312</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>26.81732054533523</v>
+      </c>
+      <c r="N16">
+        <v>14.29395324105668</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>34.87854740619463</v>
+      </c>
+      <c r="C17">
+        <v>26.51301378565892</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10.00728726882479</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268389</v>
+      </c>
+      <c r="G17">
+        <v>1.983695674685701</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>26.15108451636351</v>
+      </c>
+      <c r="N17">
+        <v>14.28703272041036</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>34.3605444473832</v>
+      </c>
+      <c r="C18">
+        <v>26.11432618374753</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>9.857342555992762</v>
+      </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>1.988162887491458</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>25.76576116546179</v>
+      </c>
+      <c r="N18">
+        <v>14.2846671820207</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>34.18462884809265</v>
+      </c>
+      <c r="C19">
+        <v>25.97897426483192</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>9.806432512188804</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494157628</v>
+      </c>
+      <c r="G19">
+        <v>1.989671452237367</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>25.63490444571072</v>
+      </c>
+      <c r="N19">
+        <v>14.28413126636889</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>34.97417548281432</v>
+      </c>
+      <c r="C20">
+        <v>26.58663663467726</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>10.03497417309487</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.89155697731402</v>
+      </c>
+      <c r="G20">
+        <v>1.982866883168843</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>26.22221921114705</v>
+      </c>
+      <c r="N20">
+        <v>14.28759928653831</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>37.59568343733857</v>
+      </c>
+      <c r="C21">
+        <v>28.6077268495461</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>10.79472278489387</v>
+      </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>1.959643845933445</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>28.17246678126433</v>
+      </c>
+      <c r="N21">
+        <v>14.31954207991893</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>39.29314748043643</v>
+      </c>
+      <c r="C22">
+        <v>29.91962813317455</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>11.28751464380752</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026788</v>
+      </c>
+      <c r="G22">
+        <v>1.944081958175332</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>29.4356486073472</v>
+      </c>
+      <c r="N22">
+        <v>14.35801189015009</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>38.3880901112821</v>
+      </c>
+      <c r="C23">
+        <v>29.2198075341164</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>11.02467932811163</v>
+      </c>
       <c r="F23">
-        <v>40.01414225038425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.01414225038423</v>
+      </c>
+      <c r="G23">
+        <v>1.952431147498263</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>28.76209428027422</v>
+      </c>
+      <c r="N23">
+        <v>14.33569372133955</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>34.93095177865694</v>
+      </c>
+      <c r="C24">
+        <v>26.55335840931578</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>10.02245952153945</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.85121910575583</v>
+      </c>
+      <c r="G24">
+        <v>1.983241653971699</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>26.19006644134621</v>
+      </c>
+      <c r="N24">
+        <v>14.28733815029601</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>31.08915111836933</v>
+      </c>
+      <c r="C25">
+        <v>23.60053874413673</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>8.976277031175639</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459127059</v>
+      </c>
+      <c r="G25">
+        <v>2.015517899493582</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>23.3320836478547</v>
+      </c>
+      <c r="N25">
+        <v>14.29579508924822</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.12521615656194</v>
+        <v>21.34629795453959</v>
       </c>
       <c r="C2">
-        <v>21.3278785389121</v>
+        <v>12.8419874002196</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.297702218365682</v>
+        <v>9.813843518255602</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>22.41061734991863</v>
       </c>
       <c r="G2">
-        <v>2.039048175391271</v>
+        <v>17.22946397119919</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.712415935054826</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.20455933760419</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.532062892618421</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.405721890943161</v>
       </c>
       <c r="M2">
-        <v>21.12588193138679</v>
+        <v>13.63511409504037</v>
       </c>
       <c r="N2">
-        <v>14.34118855872597</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.96294167526932</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.01782312317452</v>
+        <v>19.95464419310024</v>
       </c>
       <c r="C3">
-        <v>19.71386823615023</v>
+        <v>12.4791457334459</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.834123598266195</v>
+        <v>9.906703677441708</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>22.21080568826962</v>
       </c>
       <c r="G3">
-        <v>2.05507026577245</v>
+        <v>17.11156082592975</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.817242121338416</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>12.55075564480176</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.448708463767042</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.218612808879096</v>
       </c>
       <c r="M3">
-        <v>19.55567768796301</v>
+        <v>12.93867586511961</v>
       </c>
       <c r="N3">
-        <v>14.3913731137426</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.07763157684891</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.67143221407581</v>
+        <v>19.04908521567841</v>
       </c>
       <c r="C4">
-        <v>18.6831493429305</v>
+        <v>12.25205832553544</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.547517029414108</v>
+        <v>9.968253925179063</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>22.10987924280373</v>
       </c>
       <c r="G4">
-        <v>2.065004145177338</v>
+        <v>17.07063229932726</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.887224893188693</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>12.77269499512888</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.396962471459624</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.104259272289781</v>
       </c>
       <c r="M4">
-        <v>18.55143265563929</v>
+        <v>12.49338956179812</v>
       </c>
       <c r="N4">
-        <v>14.43040927058935</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.16189713396981</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.10911012517455</v>
+        <v>18.66718514557896</v>
       </c>
       <c r="C5">
-        <v>18.25271270322466</v>
+        <v>12.15854030548121</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.430252574416642</v>
+        <v>9.994454777216886</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>22.07410606425371</v>
       </c>
       <c r="G5">
-        <v>2.069084087416091</v>
+        <v>17.06154680315878</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.917105410707066</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.86544197549548</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.375746380414817</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.057847591090548</v>
       </c>
       <c r="M5">
-        <v>18.13169559129241</v>
+        <v>12.30766370314671</v>
       </c>
       <c r="N5">
-        <v>14.44820768020466</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.19954465352064</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.01489977212623</v>
+        <v>18.60299234847551</v>
       </c>
       <c r="C6">
-        <v>18.18059882441294</v>
+        <v>12.14295581636038</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.41075398055515</v>
+        <v>9.998872368067763</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>22.06848567200913</v>
       </c>
       <c r="G6">
-        <v>2.069763684857637</v>
+        <v>17.06048682930095</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.922147887059561</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.88098039205835</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.372216053446193</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.050153956347579</v>
       </c>
       <c r="M6">
-        <v>18.06135335613269</v>
+        <v>12.2765720637517</v>
       </c>
       <c r="N6">
-        <v>14.4512725159306</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.20599089266205</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.6639044066444</v>
+        <v>19.04398695670553</v>
       </c>
       <c r="C7">
-        <v>18.67738699929298</v>
+        <v>12.25080092637273</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.545937401951694</v>
+        <v>9.968602777138342</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>22.10937527610472</v>
       </c>
       <c r="G7">
-        <v>2.065059030534765</v>
+        <v>17.07047946962461</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.887622422394985</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>12.7739365433659</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.396676849257695</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.103632512740965</v>
       </c>
       <c r="M7">
-        <v>18.54581495257563</v>
+        <v>12.49090182320559</v>
       </c>
       <c r="N7">
-        <v>14.43064186879141</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.16239168901605</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.40916534531143</v>
+        <v>20.87703428975959</v>
       </c>
       <c r="C8">
-        <v>20.77933661265087</v>
+        <v>12.71783190180168</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.138271021733837</v>
+        <v>9.844907461809752</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>22.33714156865929</v>
       </c>
       <c r="G8">
-        <v>2.044557496224124</v>
+        <v>17.18209958230826</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.747361926365872</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>12.32194816965138</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.503447541184133</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.341128467754935</v>
       </c>
       <c r="M8">
-        <v>20.59254561223696</v>
+        <v>13.39874489412136</v>
       </c>
       <c r="N8">
-        <v>14.3566723970372</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.9995072241924</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.40206949368052</v>
+        <v>24.06826376707251</v>
       </c>
       <c r="C9">
-        <v>24.60861855915057</v>
+        <v>13.59542564144167</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.290870859971973</v>
+        <v>9.639338855613481</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>22.96075356301516</v>
       </c>
       <c r="G9">
-        <v>2.004715975370999</v>
+        <v>17.66288806650418</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.519383885985295</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.51284430909153</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.70777862496104</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.808776062497785</v>
       </c>
       <c r="M9">
-        <v>24.30888545515104</v>
+        <v>15.03268027058111</v>
       </c>
       <c r="N9">
-        <v>14.28610346631437</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.79797355290661</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.87600601515163</v>
+        <v>26.17004545598024</v>
       </c>
       <c r="C10">
-        <v>27.2812866275592</v>
+        <v>14.2119608564654</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.29616973950204</v>
+        <v>9.512374974380204</v>
       </c>
       <c r="F10">
-        <v>37.72874519847369</v>
+        <v>23.53147231586413</v>
       </c>
       <c r="G10">
-        <v>1.974987696725668</v>
+        <v>18.18930627114255</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.38433061287469</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.97044926785547</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.854120795940268</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.150615793934564</v>
       </c>
       <c r="M10">
-        <v>26.8930778247663</v>
+        <v>16.13758056308045</v>
       </c>
       <c r="N10">
-        <v>14.29497157826611</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>11.7330912836783</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.4269060752239</v>
+        <v>27.07423719756792</v>
       </c>
       <c r="C11">
-        <v>28.47743129731495</v>
+        <v>14.48544133629387</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.74576277652743</v>
+        <v>9.4602028892209</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>23.81620323013977</v>
       </c>
       <c r="G11">
-        <v>1.96116843893181</v>
+        <v>18.46833411251431</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.330848663449012</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.73645363587132</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.91973742630817</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.305193283224728</v>
       </c>
       <c r="M11">
-        <v>28.04688951180842</v>
+        <v>16.61858972277927</v>
       </c>
       <c r="N11">
-        <v>14.31650240199213</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>11.72413260260721</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.0113285763646</v>
+        <v>27.40923066075255</v>
       </c>
       <c r="C12">
-        <v>28.92871276163384</v>
+        <v>14.58793559441549</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.91532434479464</v>
+        <v>9.441282311250024</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>23.92766591689892</v>
       </c>
       <c r="G12">
-        <v>1.955871812208784</v>
+        <v>18.57977960140046</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.311823577456794</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.64983197850839</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.944436650298269</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.363552617561734</v>
       </c>
       <c r="M12">
-        <v>28.48173751807152</v>
+        <v>16.79757597345597</v>
       </c>
       <c r="N12">
-        <v>14.32762507378655</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>11.72390280943255</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.8855652270147</v>
+        <v>27.33741211647203</v>
       </c>
       <c r="C13">
-        <v>28.83157425673241</v>
+        <v>14.56590998034279</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.87882914355003</v>
+        <v>9.44531947556607</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>23.90349812760292</v>
       </c>
       <c r="G13">
-        <v>1.957015752817491</v>
+        <v>18.55551950723056</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.315864987448402</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.66839632245892</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.939123996945052</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.350992344912816</v>
       </c>
       <c r="M13">
-        <v>28.38815813640533</v>
+        <v>16.75916937762597</v>
       </c>
       <c r="N13">
-        <v>14.32508928293499</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>11.72380836382922</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.47503544280568</v>
+        <v>27.10194534006879</v>
       </c>
       <c r="C14">
-        <v>28.51458442428598</v>
+        <v>14.49389531137837</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.75972377208086</v>
+        <v>9.45862933435826</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>23.82530022383728</v>
       </c>
       <c r="G14">
-        <v>1.960734094934169</v>
+        <v>18.47738648605464</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.329258359725571</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.72928639503226</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.921772480406472</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.309998293773427</v>
       </c>
       <c r="M14">
-        <v>28.08269941980956</v>
+        <v>16.63337864143345</v>
       </c>
       <c r="N14">
-        <v>14.31735501965391</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>11.7240491339415</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.2232461626034</v>
+        <v>26.95675276572816</v>
       </c>
       <c r="C15">
-        <v>28.3202400759098</v>
+        <v>14.44964359335136</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.6866926187226</v>
+        <v>9.466891871500858</v>
       </c>
       <c r="F15">
-        <v>38.96319309154518</v>
+        <v>23.77787665054</v>
       </c>
       <c r="G15">
-        <v>1.963002697862891</v>
+        <v>18.43028308765194</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.337624609670478</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.76684724953661</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.911124538761384</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.28486416370411</v>
       </c>
       <c r="M15">
-        <v>27.89536218192818</v>
+        <v>16.55591514432265</v>
       </c>
       <c r="N15">
-        <v>14.31301934511439</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>11.72461459691354</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.77416848246176</v>
+        <v>26.10991483719485</v>
       </c>
       <c r="C16">
-        <v>27.2028129053179</v>
+        <v>14.1939421894214</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.26666627139807</v>
+        <v>9.515899673133475</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>23.51337264042605</v>
       </c>
       <c r="G16">
-        <v>1.975883176625312</v>
+        <v>18.17187625468129</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.38799284952682</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.98601043964805</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.849812416179046</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.140491415885077</v>
       </c>
       <c r="M16">
-        <v>26.81732054533523</v>
+        <v>16.10570562603565</v>
       </c>
       <c r="N16">
-        <v>14.29395324105668</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>11.73410809270718</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.87854740619463</v>
+        <v>25.5771521434545</v>
       </c>
       <c r="C17">
-        <v>26.51301378565892</v>
+        <v>14.03524170279868</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.00728726882479</v>
+        <v>9.547417362474638</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>23.3575647904594</v>
       </c>
       <c r="G17">
-        <v>1.983695674685701</v>
+        <v>18.02356497874689</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.420986973658307</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.12382497582952</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.811946708625055</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.051654514326685</v>
       </c>
       <c r="M17">
-        <v>26.15108451636351</v>
+        <v>15.8239376205392</v>
       </c>
       <c r="N17">
-        <v>14.28703272041036</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>11.74534434042065</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.3605444473832</v>
+        <v>25.2658303278847</v>
       </c>
       <c r="C18">
-        <v>26.11432618374753</v>
+        <v>13.94330717869636</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.857342555992762</v>
+        <v>9.566069044279216</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>23.27031058170312</v>
       </c>
       <c r="G18">
-        <v>1.988162887491458</v>
+        <v>17.94198070899608</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.440707664042471</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.20428074671455</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.790078066253439</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.000472919787681</v>
       </c>
       <c r="M18">
-        <v>25.76576116546179</v>
+        <v>15.6598396824439</v>
       </c>
       <c r="N18">
-        <v>14.2846671820207</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>11.75372963739933</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.18462884809265</v>
+        <v>25.15958029008057</v>
       </c>
       <c r="C19">
-        <v>25.97897426483192</v>
+        <v>13.91206940679416</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.806432512188804</v>
+        <v>9.572473136291446</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>23.24117239234774</v>
       </c>
       <c r="G19">
-        <v>1.989671452237367</v>
+        <v>17.91499307036582</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.447509974959003</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.23172155624573</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.782658731779995</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.983130476844877</v>
       </c>
       <c r="M19">
-        <v>25.63490444571072</v>
+        <v>15.60393174179042</v>
       </c>
       <c r="N19">
-        <v>14.28413126636889</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11.75689263692094</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.97417548281432</v>
+        <v>25.63437138604747</v>
       </c>
       <c r="C20">
-        <v>26.58663663467726</v>
+        <v>14.05220382648188</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.03497417309487</v>
+        <v>9.544007835197904</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>23.37390604522783</v>
       </c>
       <c r="G20">
-        <v>1.982866883168843</v>
+        <v>18.03896709067974</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.4173971739844</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.10903034784971</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.815986901016094</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.061120467029058</v>
       </c>
       <c r="M20">
-        <v>26.22221921114705</v>
+        <v>15.8541430885675</v>
       </c>
       <c r="N20">
-        <v>14.28759928653831</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>11.74394775058643</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.59568343733857</v>
+        <v>27.17130808335788</v>
       </c>
       <c r="C21">
-        <v>28.6077268495461</v>
+        <v>14.51507717768354</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.79472278489387</v>
+        <v>9.454696948961287</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>23.84816983699629</v>
       </c>
       <c r="G21">
-        <v>1.959643845933445</v>
+        <v>18.50017852445393</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.325290395240192</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.71134618323163</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.926873152334722</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.322044331002109</v>
       </c>
       <c r="M21">
-        <v>28.17246678126433</v>
+        <v>16.67041258100238</v>
       </c>
       <c r="N21">
-        <v>14.31954207991893</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>11.72389093983316</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.29314748043643</v>
+        <v>28.13265795199462</v>
       </c>
       <c r="C22">
-        <v>29.91962813317455</v>
+        <v>14.81134983391865</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.28751464380752</v>
+        <v>9.40121592952438</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>24.17935875707001</v>
       </c>
       <c r="G22">
-        <v>1.944081958175332</v>
+        <v>18.83533486354659</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.272290456458711</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.46311503790807</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.998474327995583</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.491531501422207</v>
       </c>
       <c r="M22">
-        <v>29.4356486073472</v>
+        <v>17.18544986788891</v>
       </c>
       <c r="N22">
-        <v>14.35801189015009</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>11.72931154081392</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.3880901112821</v>
+        <v>27.62349233577572</v>
       </c>
       <c r="C23">
-        <v>29.2198075341164</v>
+        <v>14.65381323920339</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.02467932811163</v>
+        <v>9.429301020530112</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>24.00064736968923</v>
       </c>
       <c r="G23">
-        <v>1.952431147498263</v>
+        <v>18.65334840659837</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.299889791506311</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.59447286165029</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.96034243279511</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.401181345018033</v>
       </c>
       <c r="M23">
-        <v>28.76209428027422</v>
+        <v>16.91226600394094</v>
       </c>
       <c r="N23">
-        <v>14.33569372133955</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>11.72465524737087</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.93095177865694</v>
+        <v>25.60851823669832</v>
       </c>
       <c r="C24">
-        <v>26.55335840931578</v>
+        <v>14.04453741186008</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.02245952153945</v>
+        <v>9.545547628679081</v>
       </c>
       <c r="F24">
-        <v>36.85121910575583</v>
+        <v>23.36651093451938</v>
       </c>
       <c r="G24">
-        <v>1.983241653971699</v>
+        <v>18.03199233540212</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.419017786574426</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.11571519688624</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.814160637999081</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.056841243177322</v>
       </c>
       <c r="M24">
-        <v>26.19006644134621</v>
+        <v>15.84049375124394</v>
       </c>
       <c r="N24">
-        <v>14.28733815029601</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>11.74457316725646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.08915111836933</v>
+        <v>23.24783551210384</v>
       </c>
       <c r="C25">
-        <v>23.60053874413673</v>
+        <v>13.36264866397311</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.976277031175639</v>
+        <v>9.690839923363697</v>
       </c>
       <c r="F25">
-        <v>33.19272459127059</v>
+        <v>22.77255694077957</v>
       </c>
       <c r="G25">
-        <v>2.015517899493582</v>
+        <v>17.5032162170976</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.575650866500215</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.72300752943318</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.653116572858742</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.682370646390551</v>
       </c>
       <c r="M25">
-        <v>23.3320836478547</v>
+        <v>14.60707001113148</v>
       </c>
       <c r="N25">
-        <v>14.29579508924822</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.83872131826936</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34629795453959</v>
+        <v>14.82383417500417</v>
       </c>
       <c r="C2">
-        <v>12.8419874002196</v>
+        <v>13.0674232306198</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.813843518255602</v>
+        <v>17.1883080589143</v>
       </c>
       <c r="F2">
-        <v>22.41061734991863</v>
+        <v>34.6666912861141</v>
       </c>
       <c r="G2">
-        <v>17.22946397119919</v>
+        <v>25.3329766834895</v>
       </c>
       <c r="H2">
-        <v>7.712415935054826</v>
+        <v>13.54091003459897</v>
       </c>
       <c r="I2">
-        <v>12.20455933760419</v>
+        <v>21.71735445182841</v>
       </c>
       <c r="J2">
-        <v>5.532062892618421</v>
+        <v>7.415309053205515</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.405721890943161</v>
+        <v>13.00004056400038</v>
       </c>
       <c r="M2">
-        <v>13.63511409504037</v>
+        <v>16.19163638291497</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.96294167526932</v>
+        <v>20.13417930201993</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95464419310024</v>
+        <v>14.20982340383126</v>
       </c>
       <c r="C3">
-        <v>12.4791457334459</v>
+        <v>12.95549928984862</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.906703677441708</v>
+        <v>17.24274035082043</v>
       </c>
       <c r="F3">
-        <v>22.21080568826962</v>
+        <v>34.77600757688738</v>
       </c>
       <c r="G3">
-        <v>17.11156082592975</v>
+        <v>25.4748207047706</v>
       </c>
       <c r="H3">
-        <v>7.817242121338416</v>
+        <v>13.59965834451468</v>
       </c>
       <c r="I3">
-        <v>12.55075564480176</v>
+        <v>21.85529217857173</v>
       </c>
       <c r="J3">
-        <v>5.448708463767042</v>
+        <v>7.3946921942755</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.218612808879096</v>
+        <v>12.98850142457487</v>
       </c>
       <c r="M3">
-        <v>12.93867586511961</v>
+        <v>16.03416379300561</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.07763157684891</v>
+        <v>20.23852890585799</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04908521567841</v>
+        <v>13.81877283369786</v>
       </c>
       <c r="C4">
-        <v>12.25205832553544</v>
+        <v>12.88671418141949</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.968253925179063</v>
+        <v>17.27836802447111</v>
       </c>
       <c r="F4">
-        <v>22.10987924280373</v>
+        <v>34.85188497816137</v>
       </c>
       <c r="G4">
-        <v>17.07063229932726</v>
+        <v>25.57191059466914</v>
       </c>
       <c r="H4">
-        <v>7.887224893188693</v>
+        <v>13.63811774880043</v>
       </c>
       <c r="I4">
-        <v>12.77269499512888</v>
+        <v>21.94463690399509</v>
       </c>
       <c r="J4">
-        <v>5.396962471459624</v>
+        <v>7.381998140936982</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.104259272289781</v>
+        <v>12.98284871180751</v>
       </c>
       <c r="M4">
-        <v>12.49338956179812</v>
+        <v>15.93785776714597</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.16189713396981</v>
+        <v>20.30753339061352</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66718514557896</v>
+        <v>13.65608274983104</v>
       </c>
       <c r="C5">
-        <v>12.15854030548121</v>
+        <v>12.85868688166846</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.994454777216886</v>
+        <v>17.29344211352719</v>
       </c>
       <c r="F5">
-        <v>22.07410606425371</v>
+        <v>34.88500206687203</v>
       </c>
       <c r="G5">
-        <v>17.06154680315878</v>
+        <v>25.61397364989348</v>
       </c>
       <c r="H5">
-        <v>7.917105410707066</v>
+        <v>13.65439089710027</v>
       </c>
       <c r="I5">
-        <v>12.86544197549548</v>
+        <v>21.98221672046068</v>
       </c>
       <c r="J5">
-        <v>5.375746380414817</v>
+        <v>7.376817644665323</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.057847591090548</v>
+        <v>12.98090752480893</v>
       </c>
       <c r="M5">
-        <v>12.30766370314671</v>
+        <v>15.89874032451494</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.19954465352064</v>
+        <v>20.33689161898264</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.60299234847551</v>
+        <v>13.62887313181504</v>
       </c>
       <c r="C6">
-        <v>12.14295581636038</v>
+        <v>12.85403371955226</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.998872368067763</v>
+        <v>17.29597873037435</v>
       </c>
       <c r="F6">
-        <v>22.06848567200913</v>
+        <v>34.89063362467274</v>
       </c>
       <c r="G6">
-        <v>17.06048682930095</v>
+        <v>25.62110860360288</v>
       </c>
       <c r="H6">
-        <v>7.922147887059561</v>
+        <v>13.65712932434029</v>
       </c>
       <c r="I6">
-        <v>12.88098039205835</v>
+        <v>21.98852760460812</v>
       </c>
       <c r="J6">
-        <v>5.372216053446193</v>
+        <v>7.375957007544602</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.050153956347579</v>
+        <v>12.98060713694329</v>
       </c>
       <c r="M6">
-        <v>12.2765720637517</v>
+        <v>15.8922535604704</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.20599089266205</v>
+        <v>20.34184125928849</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04398695670553</v>
+        <v>13.81659195599828</v>
       </c>
       <c r="C7">
-        <v>12.25080092637273</v>
+        <v>12.88633615734599</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.968602777138342</v>
+        <v>17.27856906854536</v>
       </c>
       <c r="F7">
-        <v>22.10937527610472</v>
+        <v>34.85232272110345</v>
       </c>
       <c r="G7">
-        <v>17.07047946962461</v>
+        <v>25.57246777790512</v>
       </c>
       <c r="H7">
-        <v>7.887622422394985</v>
+        <v>13.63833478194279</v>
       </c>
       <c r="I7">
-        <v>12.7739365433659</v>
+        <v>21.94513897441315</v>
       </c>
       <c r="J7">
-        <v>5.396676849257695</v>
+        <v>7.381928303902232</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.103632512740965</v>
+        <v>12.9828210624319</v>
       </c>
       <c r="M7">
-        <v>12.49090182320559</v>
+        <v>15.93732965538669</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.16239168901605</v>
+        <v>20.30792431485265</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.87703428975959</v>
+        <v>14.61514933363134</v>
       </c>
       <c r="C8">
-        <v>12.71783190180168</v>
+        <v>13.02885649343443</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.844907461809752</v>
+        <v>17.20661893372822</v>
       </c>
       <c r="F8">
-        <v>22.33714156865929</v>
+        <v>34.70256286385004</v>
       </c>
       <c r="G8">
-        <v>17.18209958230826</v>
+        <v>25.37980026628693</v>
       </c>
       <c r="H8">
-        <v>7.747361926365872</v>
+        <v>13.56067101538125</v>
       </c>
       <c r="I8">
-        <v>12.32194816965138</v>
+        <v>21.76395122979191</v>
       </c>
       <c r="J8">
-        <v>5.503447541184133</v>
+        <v>7.408208445276649</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.341128467754935</v>
+        <v>12.99576591476103</v>
       </c>
       <c r="M8">
-        <v>13.39874489412136</v>
+        <v>16.13727952254391</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.9995072241924</v>
+        <v>20.16913378846549</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.06826376707251</v>
+        <v>16.06222729934476</v>
       </c>
       <c r="C9">
-        <v>13.59542564144167</v>
+        <v>13.3069964714319</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.639338855613481</v>
+        <v>17.08299256823812</v>
       </c>
       <c r="F9">
-        <v>22.96075356301516</v>
+        <v>34.47859759706167</v>
       </c>
       <c r="G9">
-        <v>17.66288806650418</v>
+        <v>25.0819872162855</v>
       </c>
       <c r="H9">
-        <v>7.519383885985295</v>
+        <v>13.42730784646696</v>
       </c>
       <c r="I9">
-        <v>11.51284430909153</v>
+        <v>21.4454618544337</v>
       </c>
       <c r="J9">
-        <v>5.70777862496104</v>
+        <v>7.459408350918741</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.808776062497785</v>
+        <v>13.03241681407768</v>
       </c>
       <c r="M9">
-        <v>15.03268027058111</v>
+        <v>16.53101597380435</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.79797355290661</v>
+        <v>19.93620916229785</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.17004545598024</v>
+        <v>17.0445231207391</v>
       </c>
       <c r="C10">
-        <v>14.2119608564654</v>
+        <v>13.50940891985445</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.512374974380204</v>
+        <v>17.00276276284982</v>
       </c>
       <c r="F10">
-        <v>23.53147231586413</v>
+        <v>34.35684484612225</v>
       </c>
       <c r="G10">
-        <v>18.18930627114255</v>
+        <v>24.91286691311928</v>
       </c>
       <c r="H10">
-        <v>7.38433061287469</v>
+        <v>13.34085518600135</v>
       </c>
       <c r="I10">
-        <v>10.97044926785547</v>
+        <v>21.2338017353697</v>
       </c>
       <c r="J10">
-        <v>5.854120795940268</v>
+        <v>7.49674655205739</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.150615793934564</v>
+        <v>13.06607323540924</v>
       </c>
       <c r="M10">
-        <v>16.13758056308045</v>
+        <v>16.81941570191905</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.7330912836783</v>
+        <v>19.78913880649086</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.07423719756792</v>
+        <v>17.47245730324479</v>
       </c>
       <c r="C11">
-        <v>14.48544133629387</v>
+        <v>13.60083549219214</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.4602028892209</v>
+        <v>16.96855498415846</v>
       </c>
       <c r="F11">
-        <v>23.81620323013977</v>
+        <v>34.31080329802973</v>
       </c>
       <c r="G11">
-        <v>18.46833411251431</v>
+        <v>24.8469023089423</v>
       </c>
       <c r="H11">
-        <v>7.330848663449012</v>
+        <v>13.30402651538476</v>
       </c>
       <c r="I11">
-        <v>10.73645363587132</v>
+        <v>21.1423387844516</v>
       </c>
       <c r="J11">
-        <v>5.91973742630817</v>
+        <v>7.513656249177044</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.305193283224728</v>
+        <v>13.08281308478401</v>
       </c>
       <c r="M11">
-        <v>16.61858972277927</v>
+        <v>16.95003043940758</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.72413260260721</v>
+        <v>19.7274867519988</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.40923066075255</v>
+        <v>17.63169201604868</v>
       </c>
       <c r="C12">
-        <v>14.58793559441549</v>
+        <v>13.63534303463623</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.441282311250024</v>
+        <v>16.95592980071955</v>
       </c>
       <c r="F12">
-        <v>23.92766591689892</v>
+        <v>34.29471597898153</v>
       </c>
       <c r="G12">
-        <v>18.57977960140046</v>
+        <v>24.82351490188636</v>
       </c>
       <c r="H12">
-        <v>7.311823577456794</v>
+        <v>13.29043973036514</v>
       </c>
       <c r="I12">
-        <v>10.64983197850839</v>
+        <v>21.10839606832737</v>
       </c>
       <c r="J12">
-        <v>5.944436650298269</v>
+        <v>7.520047210372343</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.363552617561734</v>
+        <v>13.08935454800556</v>
       </c>
       <c r="M12">
-        <v>16.79757597345597</v>
+        <v>16.99937476560617</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.72390280943255</v>
+        <v>19.70489842256648</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.33741211647203</v>
+        <v>17.59752450496198</v>
       </c>
       <c r="C13">
-        <v>14.56590998034279</v>
+        <v>13.62791659035263</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.44531947556607</v>
+        <v>16.95863425681073</v>
       </c>
       <c r="F13">
-        <v>23.90349812760292</v>
+        <v>34.29812067869467</v>
       </c>
       <c r="G13">
-        <v>18.55551950723056</v>
+        <v>24.82848077003316</v>
       </c>
       <c r="H13">
-        <v>7.315864987448402</v>
+        <v>13.29334990038786</v>
       </c>
       <c r="I13">
-        <v>10.66839632245892</v>
+        <v>21.11567546564743</v>
       </c>
       <c r="J13">
-        <v>5.939123996945052</v>
+        <v>7.518671376854289</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.350992344912816</v>
+        <v>13.0879367738528</v>
       </c>
       <c r="M13">
-        <v>16.75916937762597</v>
+        <v>16.98875329338142</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.72380836382922</v>
+        <v>19.70972946661091</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.10194534006879</v>
+        <v>17.48561453849926</v>
       </c>
       <c r="C14">
-        <v>14.49389531137837</v>
+        <v>13.60367684086917</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.45862933435826</v>
+        <v>16.96750972139202</v>
       </c>
       <c r="F14">
-        <v>23.82530022383728</v>
+        <v>34.30945275583674</v>
       </c>
       <c r="G14">
-        <v>18.47738648605464</v>
+        <v>24.84494622631838</v>
       </c>
       <c r="H14">
-        <v>7.329258359725571</v>
+        <v>13.30290151835085</v>
       </c>
       <c r="I14">
-        <v>10.72928639503226</v>
+        <v>21.1395324278593</v>
       </c>
       <c r="J14">
-        <v>5.921772480406472</v>
+        <v>7.514182294020872</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.309998293773427</v>
+        <v>13.08334721583027</v>
       </c>
       <c r="M14">
-        <v>16.63337864143345</v>
+        <v>16.95409255302789</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.7240491339415</v>
+        <v>19.72561318919417</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.95675276572816</v>
+        <v>17.41669734523949</v>
       </c>
       <c r="C15">
-        <v>14.44964359335136</v>
+        <v>13.588813897421</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.466891871500858</v>
+        <v>16.97298896975408</v>
       </c>
       <c r="F15">
-        <v>23.77787665054</v>
+        <v>34.31656958681275</v>
       </c>
       <c r="G15">
-        <v>18.43028308765194</v>
+        <v>24.85523953611619</v>
       </c>
       <c r="H15">
-        <v>7.337624609670478</v>
+        <v>13.30879897140331</v>
       </c>
       <c r="I15">
-        <v>10.76684724953661</v>
+        <v>21.15423563422839</v>
       </c>
       <c r="J15">
-        <v>5.911124538761384</v>
+        <v>7.511430945022111</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.28486416370411</v>
+        <v>13.08056224908371</v>
       </c>
       <c r="M15">
-        <v>16.55591514432265</v>
+        <v>16.93284568087357</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.72461459691354</v>
+        <v>19.73544122332004</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.10991483719485</v>
+        <v>17.01616754636679</v>
       </c>
       <c r="C16">
-        <v>14.1939421894214</v>
+        <v>13.50341914656512</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.515899673133475</v>
+        <v>17.00504433227857</v>
       </c>
       <c r="F16">
-        <v>23.51337264042605</v>
+        <v>34.36004214793233</v>
       </c>
       <c r="G16">
-        <v>18.17187625468129</v>
+        <v>24.91739984529816</v>
       </c>
       <c r="H16">
-        <v>7.38799284952682</v>
+        <v>13.34331231944659</v>
       </c>
       <c r="I16">
-        <v>10.98601043964805</v>
+        <v>21.2398759937863</v>
       </c>
       <c r="J16">
-        <v>5.849812416179046</v>
+        <v>7.495639813853806</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.140491415885077</v>
+        <v>13.06500774808546</v>
       </c>
       <c r="M16">
-        <v>16.10570562603565</v>
+        <v>16.81086519889287</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.73410809270718</v>
+        <v>19.79327382212323</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.5771521434545</v>
+        <v>16.76553843057495</v>
       </c>
       <c r="C17">
-        <v>14.03524170279868</v>
+        <v>13.45085096826535</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.547417362474638</v>
+        <v>17.02529512439468</v>
       </c>
       <c r="F17">
-        <v>23.3575647904594</v>
+        <v>34.38910741699656</v>
       </c>
       <c r="G17">
-        <v>18.02356497874689</v>
+        <v>24.95835322854191</v>
       </c>
       <c r="H17">
-        <v>7.420986973658307</v>
+        <v>13.36512525623044</v>
       </c>
       <c r="I17">
-        <v>11.12382497582952</v>
+        <v>21.29364786664594</v>
       </c>
       <c r="J17">
-        <v>5.811946708625055</v>
+        <v>7.485932032568288</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.051654514326685</v>
+        <v>13.05582950462814</v>
       </c>
       <c r="M17">
-        <v>15.8239376205392</v>
+        <v>16.73586179431123</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.74534434042065</v>
+        <v>19.83009919287086</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.2658303278847</v>
+        <v>16.61960726118326</v>
       </c>
       <c r="C18">
-        <v>13.94330717869636</v>
+        <v>13.42055496428433</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.566069044279216</v>
+        <v>17.03715834747496</v>
       </c>
       <c r="F18">
-        <v>23.27031058170312</v>
+        <v>34.40670432724318</v>
       </c>
       <c r="G18">
-        <v>17.94198070899608</v>
+        <v>24.9829401570527</v>
       </c>
       <c r="H18">
-        <v>7.440707664042471</v>
+        <v>13.37790670003685</v>
       </c>
       <c r="I18">
-        <v>11.20428074671455</v>
+        <v>21.32502998609387</v>
       </c>
       <c r="J18">
-        <v>5.790078066253439</v>
+        <v>7.480341344606763</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.000472919787681</v>
+        <v>13.05068515564438</v>
       </c>
       <c r="M18">
-        <v>15.6598396824439</v>
+        <v>16.69266921130548</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.75372963739933</v>
+        <v>19.85177424598132</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.15958029008057</v>
+        <v>16.56989557738527</v>
       </c>
       <c r="C19">
-        <v>13.91206940679416</v>
+        <v>13.41028753574058</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.572473136291446</v>
+        <v>17.04121206287093</v>
       </c>
       <c r="F19">
-        <v>23.24117239234774</v>
+        <v>34.41281323828034</v>
       </c>
       <c r="G19">
-        <v>17.91499307036582</v>
+        <v>24.99144159532372</v>
       </c>
       <c r="H19">
-        <v>7.447509974959003</v>
+        <v>13.38227467475502</v>
       </c>
       <c r="I19">
-        <v>11.23172155624573</v>
+        <v>21.33573343599222</v>
       </c>
       <c r="J19">
-        <v>5.782658731779995</v>
+        <v>7.478447271907053</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.983130476844877</v>
+        <v>13.04896660016723</v>
       </c>
       <c r="M19">
-        <v>15.60393174179042</v>
+        <v>16.6780369319723</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.75689263692094</v>
+        <v>19.85919781690077</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.63437138604747</v>
+        <v>16.79240286045063</v>
       </c>
       <c r="C20">
-        <v>14.05220382648188</v>
+        <v>13.45645331446594</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.544007835197904</v>
+        <v>17.02311709376464</v>
       </c>
       <c r="F20">
-        <v>23.37390604522783</v>
+        <v>34.38592233158582</v>
       </c>
       <c r="G20">
-        <v>18.03896709067974</v>
+        <v>24.95388679363054</v>
       </c>
       <c r="H20">
-        <v>7.4173971739844</v>
+        <v>13.36277888710485</v>
       </c>
       <c r="I20">
-        <v>11.10903034784971</v>
+        <v>21.2878767841244</v>
       </c>
       <c r="J20">
-        <v>5.815986901016094</v>
+        <v>7.486966180728796</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.061120467029058</v>
+        <v>13.0567926218425</v>
       </c>
       <c r="M20">
-        <v>15.8541430885675</v>
+        <v>16.74385172231552</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.74394775058643</v>
+        <v>19.82612791371298</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17130808335788</v>
+        <v>17.51856227848384</v>
       </c>
       <c r="C21">
-        <v>14.51507717768354</v>
+        <v>13.61079988680355</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.454696948961287</v>
+        <v>16.96489387015349</v>
       </c>
       <c r="F21">
-        <v>23.84816983699629</v>
+        <v>34.30608764760341</v>
       </c>
       <c r="G21">
-        <v>18.50017852445393</v>
+        <v>24.84006660420336</v>
       </c>
       <c r="H21">
-        <v>7.325290395240192</v>
+        <v>13.30008622104308</v>
       </c>
       <c r="I21">
-        <v>10.71134618323163</v>
+        <v>21.13250627903607</v>
       </c>
       <c r="J21">
-        <v>5.926873152334722</v>
+        <v>7.515501194294829</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.322044331002109</v>
+        <v>13.08468981134088</v>
       </c>
       <c r="M21">
-        <v>16.67041258100238</v>
+        <v>16.96427668058937</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.72389093983316</v>
+        <v>19.72092716079554</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.13265795199462</v>
+        <v>17.97670942423193</v>
       </c>
       <c r="C22">
-        <v>14.81134983391865</v>
+        <v>13.71100242911386</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.40121592952438</v>
+        <v>16.92875644740832</v>
       </c>
       <c r="F22">
-        <v>24.17935875707001</v>
+        <v>34.26176744897496</v>
       </c>
       <c r="G22">
-        <v>18.83533486354659</v>
+        <v>24.77496397655776</v>
       </c>
       <c r="H22">
-        <v>7.272290456458711</v>
+        <v>13.26120803988472</v>
       </c>
       <c r="I22">
-        <v>10.46311503790807</v>
+        <v>21.03499756229473</v>
       </c>
       <c r="J22">
-        <v>5.998474327995583</v>
+        <v>7.534077645792538</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.491531501422207</v>
+        <v>13.10410070936297</v>
       </c>
       <c r="M22">
-        <v>17.18544986788891</v>
+        <v>17.10764225610378</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.72931154081392</v>
+        <v>19.65659174495469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.62349233577572</v>
+        <v>17.73371945927919</v>
       </c>
       <c r="C23">
-        <v>14.65381323920339</v>
+        <v>13.65759044077604</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.429301020530112</v>
+        <v>16.94786866542674</v>
       </c>
       <c r="F23">
-        <v>24.00064736968923</v>
+        <v>34.28470195709956</v>
       </c>
       <c r="G23">
-        <v>18.65334840659837</v>
+        <v>24.80885619936807</v>
       </c>
       <c r="H23">
-        <v>7.299889791506311</v>
+        <v>13.28176632637694</v>
       </c>
       <c r="I23">
-        <v>10.59447286165029</v>
+        <v>21.08667095964923</v>
       </c>
       <c r="J23">
-        <v>5.96034243279511</v>
+        <v>7.524170205957638</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.401181345018033</v>
+        <v>13.09363397696724</v>
       </c>
       <c r="M23">
-        <v>16.91226600394094</v>
+        <v>17.03119977167112</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.72465524737087</v>
+        <v>19.69052343754823</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.60851823669832</v>
+        <v>16.78026317917763</v>
       </c>
       <c r="C24">
-        <v>14.04453741186008</v>
+        <v>13.45392072228453</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.545547628679081</v>
+        <v>17.02410109368179</v>
       </c>
       <c r="F24">
-        <v>23.36651093451938</v>
+        <v>34.38735954638747</v>
       </c>
       <c r="G24">
-        <v>18.03199233540212</v>
+        <v>24.95590282333536</v>
       </c>
       <c r="H24">
-        <v>7.419017786574426</v>
+        <v>13.36383893021016</v>
       </c>
       <c r="I24">
-        <v>11.11571519688624</v>
+        <v>21.29048443279024</v>
       </c>
       <c r="J24">
-        <v>5.814160637999081</v>
+        <v>7.486498671991779</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.056841243177322</v>
+        <v>13.05635678407794</v>
       </c>
       <c r="M24">
-        <v>15.84049375124394</v>
+        <v>16.74023969798138</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.74457316725646</v>
+        <v>19.82792176037239</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24783551210384</v>
+        <v>15.68442937415515</v>
       </c>
       <c r="C25">
-        <v>13.36264866397311</v>
+        <v>13.23201172401517</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.690839923363697</v>
+        <v>17.11457198307792</v>
       </c>
       <c r="F25">
-        <v>22.77255694077957</v>
+        <v>34.531690639674</v>
       </c>
       <c r="G25">
-        <v>17.5032162170976</v>
+        <v>25.15389258374428</v>
       </c>
       <c r="H25">
-        <v>7.575650866500215</v>
+        <v>13.46136051961372</v>
       </c>
       <c r="I25">
-        <v>11.72300752943318</v>
+        <v>21.52769172444755</v>
       </c>
       <c r="J25">
-        <v>5.653116572858742</v>
+        <v>7.445600883316331</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.682370646390551</v>
+        <v>13.02130944025232</v>
       </c>
       <c r="M25">
-        <v>14.60707001113148</v>
+        <v>16.42451879598883</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.83872131826936</v>
+        <v>19.99500630637785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.82383417500417</v>
+        <v>21.34629795453958</v>
       </c>
       <c r="C2">
-        <v>13.0674232306198</v>
+        <v>12.8419874002195</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.1883080589143</v>
+        <v>9.813843518255485</v>
       </c>
       <c r="F2">
-        <v>34.6666912861141</v>
+        <v>22.41061734991862</v>
       </c>
       <c r="G2">
-        <v>25.3329766834895</v>
+        <v>17.2294639711992</v>
       </c>
       <c r="H2">
-        <v>13.54091003459897</v>
+        <v>7.71241593505489</v>
       </c>
       <c r="I2">
-        <v>21.71735445182841</v>
+        <v>12.20455933760429</v>
       </c>
       <c r="J2">
-        <v>7.415309053205515</v>
+        <v>5.532062892618482</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.00004056400038</v>
+        <v>8.405721890943102</v>
       </c>
       <c r="M2">
-        <v>16.19163638291497</v>
+        <v>13.63511409504036</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.13417930201993</v>
+        <v>11.96294167526942</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.20982340383126</v>
+        <v>19.95464419310018</v>
       </c>
       <c r="C3">
-        <v>12.95549928984862</v>
+        <v>12.47914573344597</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.24274035082043</v>
+        <v>9.906703677441778</v>
       </c>
       <c r="F3">
-        <v>34.77600757688738</v>
+        <v>22.21080568826981</v>
       </c>
       <c r="G3">
-        <v>25.4748207047706</v>
+        <v>17.1115608259299</v>
       </c>
       <c r="H3">
-        <v>13.59965834451468</v>
+        <v>7.817242121338418</v>
       </c>
       <c r="I3">
-        <v>21.85529217857173</v>
+        <v>12.55075564480183</v>
       </c>
       <c r="J3">
-        <v>7.3946921942755</v>
+        <v>5.448708463767007</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.98850142457487</v>
+        <v>8.218612808879136</v>
       </c>
       <c r="M3">
-        <v>16.03416379300561</v>
+        <v>12.93867586511964</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.23852890585799</v>
+        <v>12.07763157684895</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.81877283369786</v>
+        <v>19.04908521567842</v>
       </c>
       <c r="C4">
-        <v>12.88671418141949</v>
+        <v>12.25205832553521</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.27836802447111</v>
+        <v>9.968253925179065</v>
       </c>
       <c r="F4">
-        <v>34.85188497816137</v>
+        <v>22.10987924280372</v>
       </c>
       <c r="G4">
-        <v>25.57191059466914</v>
+        <v>17.07063229932725</v>
       </c>
       <c r="H4">
-        <v>13.63811774880043</v>
+        <v>7.887224893188693</v>
       </c>
       <c r="I4">
-        <v>21.94463690399509</v>
+        <v>12.77269499512879</v>
       </c>
       <c r="J4">
-        <v>7.381998140936982</v>
+        <v>5.396962471459622</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.98284871180751</v>
+        <v>8.104259272289854</v>
       </c>
       <c r="M4">
-        <v>15.93785776714597</v>
+        <v>12.49338956179816</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.30753339061352</v>
+        <v>12.16189713396981</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.65608274983104</v>
+        <v>18.66718514557897</v>
       </c>
       <c r="C5">
-        <v>12.85868688166846</v>
+        <v>12.15854030548121</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.29344211352719</v>
+        <v>9.99445477721682</v>
       </c>
       <c r="F5">
-        <v>34.88500206687203</v>
+        <v>22.07410606425358</v>
       </c>
       <c r="G5">
-        <v>25.61397364989348</v>
+        <v>17.06154680315862</v>
       </c>
       <c r="H5">
-        <v>13.65439089710027</v>
+        <v>7.917105410707075</v>
       </c>
       <c r="I5">
-        <v>21.98221672046068</v>
+        <v>12.86544197549539</v>
       </c>
       <c r="J5">
-        <v>7.376817644665323</v>
+        <v>5.375746380414846</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.98090752480893</v>
+        <v>8.057847591090466</v>
       </c>
       <c r="M5">
-        <v>15.89874032451494</v>
+        <v>12.30766370314669</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.33689161898264</v>
+        <v>12.19954465352056</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.62887313181504</v>
+        <v>18.60299234847551</v>
       </c>
       <c r="C6">
-        <v>12.85403371955226</v>
+        <v>12.14295581636036</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.29597873037435</v>
+        <v>9.998872368067646</v>
       </c>
       <c r="F6">
-        <v>34.89063362467274</v>
+        <v>22.06848567200898</v>
       </c>
       <c r="G6">
-        <v>25.62110860360288</v>
+        <v>17.06048682930076</v>
       </c>
       <c r="H6">
-        <v>13.65712932434029</v>
+        <v>7.922147887059501</v>
       </c>
       <c r="I6">
-        <v>21.98852760460812</v>
+        <v>12.88098039205822</v>
       </c>
       <c r="J6">
-        <v>7.375957007544602</v>
+        <v>5.372216053446129</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.98060713694329</v>
+        <v>8.050153956347536</v>
       </c>
       <c r="M6">
-        <v>15.8922535604704</v>
+        <v>12.27657206375167</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.34184125928849</v>
+        <v>12.2059908926619</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.81659195599828</v>
+        <v>19.04398695670547</v>
       </c>
       <c r="C7">
-        <v>12.88633615734599</v>
+        <v>12.25080092637269</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.27856906854536</v>
+        <v>9.968602777138422</v>
       </c>
       <c r="F7">
-        <v>34.85232272110345</v>
+        <v>22.10937527610499</v>
       </c>
       <c r="G7">
-        <v>25.57246777790512</v>
+        <v>17.07047946962509</v>
       </c>
       <c r="H7">
-        <v>13.63833478194279</v>
+        <v>7.887622422395052</v>
       </c>
       <c r="I7">
-        <v>21.94513897441315</v>
+        <v>12.77393654336616</v>
       </c>
       <c r="J7">
-        <v>7.381928303902232</v>
+        <v>5.396676849257689</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.9828210624319</v>
+        <v>8.103632512740996</v>
       </c>
       <c r="M7">
-        <v>15.93732965538669</v>
+        <v>12.49090182320564</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.30792431485265</v>
+        <v>12.16239168901629</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.61514933363134</v>
+        <v>20.87703428975966</v>
       </c>
       <c r="C8">
-        <v>13.02885649343443</v>
+        <v>12.71783190180136</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.20661893372822</v>
+        <v>9.844907461809568</v>
       </c>
       <c r="F8">
-        <v>34.70256286385004</v>
+        <v>22.33714156865916</v>
       </c>
       <c r="G8">
-        <v>25.37980026628693</v>
+        <v>17.1820995823081</v>
       </c>
       <c r="H8">
-        <v>13.56067101538125</v>
+        <v>7.747361926365872</v>
       </c>
       <c r="I8">
-        <v>21.76395122979191</v>
+        <v>12.32194816965126</v>
       </c>
       <c r="J8">
-        <v>7.408208445276649</v>
+        <v>5.503447541184134</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.99576591476103</v>
+        <v>8.341128467754947</v>
       </c>
       <c r="M8">
-        <v>16.13727952254391</v>
+        <v>13.39874489412131</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.16913378846549</v>
+        <v>11.99950722419234</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.06222729934476</v>
+        <v>24.06826376707248</v>
       </c>
       <c r="C9">
-        <v>13.3069964714319</v>
+        <v>13.59542564144155</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>17.08299256823812</v>
+        <v>9.639338855613369</v>
       </c>
       <c r="F9">
-        <v>34.47859759706167</v>
+        <v>22.9607535630152</v>
       </c>
       <c r="G9">
-        <v>25.0819872162855</v>
+        <v>17.66288806650432</v>
       </c>
       <c r="H9">
-        <v>13.42730784646696</v>
+        <v>7.519383885985468</v>
       </c>
       <c r="I9">
-        <v>21.4454618544337</v>
+        <v>11.51284430909167</v>
       </c>
       <c r="J9">
-        <v>7.459408350918741</v>
+        <v>5.707778624961127</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.03241681407768</v>
+        <v>8.808776062497783</v>
       </c>
       <c r="M9">
-        <v>16.53101597380435</v>
+        <v>15.03268027058112</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.93620916229785</v>
+        <v>11.79797355290678</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.0445231207391</v>
+        <v>26.17004545598031</v>
       </c>
       <c r="C10">
-        <v>13.50940891985445</v>
+        <v>14.21196085646539</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.00276276284982</v>
+        <v>9.512374974380208</v>
       </c>
       <c r="F10">
-        <v>34.35684484612225</v>
+        <v>23.53147231586409</v>
       </c>
       <c r="G10">
-        <v>24.91286691311928</v>
+        <v>18.18930627114246</v>
       </c>
       <c r="H10">
-        <v>13.34085518600135</v>
+        <v>7.38433061287464</v>
       </c>
       <c r="I10">
-        <v>21.2338017353697</v>
+        <v>10.97044926785538</v>
       </c>
       <c r="J10">
-        <v>7.49674655205739</v>
+        <v>5.854120795940266</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.06607323540924</v>
+        <v>9.150615793934579</v>
       </c>
       <c r="M10">
-        <v>16.81941570191905</v>
+        <v>16.13758056308044</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.78913880649086</v>
+        <v>11.73309128367824</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.47245730324479</v>
+        <v>27.07423719756792</v>
       </c>
       <c r="C11">
-        <v>13.60083549219214</v>
+        <v>14.48544133629376</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.96855498415846</v>
+        <v>9.46020288922084</v>
       </c>
       <c r="F11">
-        <v>34.31080329802973</v>
+        <v>23.81620323013989</v>
       </c>
       <c r="G11">
-        <v>24.8469023089423</v>
+        <v>18.46833411251453</v>
       </c>
       <c r="H11">
-        <v>13.30402651538476</v>
+        <v>7.330848663449026</v>
       </c>
       <c r="I11">
-        <v>21.1423387844516</v>
+        <v>10.73645363587145</v>
       </c>
       <c r="J11">
-        <v>7.513656249177044</v>
+        <v>5.919737426308166</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.08281308478401</v>
+        <v>9.305193283224716</v>
       </c>
       <c r="M11">
-        <v>16.95003043940758</v>
+        <v>16.61858972277922</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.7274867519988</v>
+        <v>11.72413260260732</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.63169201604868</v>
+        <v>27.40923066075259</v>
       </c>
       <c r="C12">
-        <v>13.63534303463623</v>
+        <v>14.58793559441523</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.95592980071955</v>
+        <v>9.441282311249843</v>
       </c>
       <c r="F12">
-        <v>34.29471597898153</v>
+        <v>23.92766591689881</v>
       </c>
       <c r="G12">
-        <v>24.82351490188636</v>
+        <v>18.57977960140032</v>
       </c>
       <c r="H12">
-        <v>13.29043973036514</v>
+        <v>7.311823577456801</v>
       </c>
       <c r="I12">
-        <v>21.10839606832737</v>
+        <v>10.64983197850819</v>
       </c>
       <c r="J12">
-        <v>7.520047210372343</v>
+        <v>5.944436650298216</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.08935454800556</v>
+        <v>9.363552617561682</v>
       </c>
       <c r="M12">
-        <v>16.99937476560617</v>
+        <v>16.79757597345595</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.70489842256648</v>
+        <v>11.72390280943247</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.59752450496198</v>
+        <v>27.33741211647203</v>
       </c>
       <c r="C13">
-        <v>13.62791659035263</v>
+        <v>14.56590998034251</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.95863425681073</v>
+        <v>9.445319475565956</v>
       </c>
       <c r="F13">
-        <v>34.29812067869467</v>
+        <v>23.90349812760301</v>
       </c>
       <c r="G13">
-        <v>24.82848077003316</v>
+        <v>18.55551950723071</v>
       </c>
       <c r="H13">
-        <v>13.29334990038786</v>
+        <v>7.315864987448467</v>
       </c>
       <c r="I13">
-        <v>21.11567546564743</v>
+        <v>10.66839632245903</v>
       </c>
       <c r="J13">
-        <v>7.518671376854289</v>
+        <v>5.939123996945044</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.0879367738528</v>
+        <v>9.350992344912768</v>
       </c>
       <c r="M13">
-        <v>16.98875329338142</v>
+        <v>16.75916937762598</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.70972946661091</v>
+        <v>11.72380836382934</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.48561453849926</v>
+        <v>27.1019453400688</v>
       </c>
       <c r="C14">
-        <v>13.60367684086917</v>
+        <v>14.49389531137832</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.96750972139202</v>
+        <v>9.458629334358196</v>
       </c>
       <c r="F14">
-        <v>34.30945275583674</v>
+        <v>23.82530022383724</v>
       </c>
       <c r="G14">
-        <v>24.84494622631838</v>
+        <v>18.47738648605469</v>
       </c>
       <c r="H14">
-        <v>13.30290151835085</v>
+        <v>7.329258359725543</v>
       </c>
       <c r="I14">
-        <v>21.1395324278593</v>
+        <v>10.7292863950322</v>
       </c>
       <c r="J14">
-        <v>7.514182294020872</v>
+        <v>5.921772480406473</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.08334721583027</v>
+        <v>9.309998293773397</v>
       </c>
       <c r="M14">
-        <v>16.95409255302789</v>
+        <v>16.63337864143344</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.72561318919417</v>
+        <v>11.72404913394149</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.41669734523949</v>
+        <v>26.95675276572817</v>
       </c>
       <c r="C15">
-        <v>13.588813897421</v>
+        <v>14.44964359335125</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.97298896975408</v>
+        <v>9.466891871500923</v>
       </c>
       <c r="F15">
-        <v>34.31656958681275</v>
+        <v>23.77787665054008</v>
       </c>
       <c r="G15">
-        <v>24.85523953611619</v>
+        <v>18.43028308765199</v>
       </c>
       <c r="H15">
-        <v>13.30879897140331</v>
+        <v>7.33762460967048</v>
       </c>
       <c r="I15">
-        <v>21.15423563422839</v>
+        <v>10.76684724953656</v>
       </c>
       <c r="J15">
-        <v>7.511430945022111</v>
+        <v>5.911124538761348</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.08056224908371</v>
+        <v>9.28486416370418</v>
       </c>
       <c r="M15">
-        <v>16.93284568087357</v>
+        <v>16.55591514432268</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.73544122332004</v>
+        <v>11.72461459691356</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.01616754636679</v>
+        <v>26.10991483719485</v>
       </c>
       <c r="C16">
-        <v>13.50341914656512</v>
+        <v>14.1939421894213</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>17.00504433227857</v>
+        <v>9.515899673133362</v>
       </c>
       <c r="F16">
-        <v>34.36004214793233</v>
+        <v>23.51337264042605</v>
       </c>
       <c r="G16">
-        <v>24.91739984529816</v>
+        <v>18.17187625468141</v>
       </c>
       <c r="H16">
-        <v>13.34331231944659</v>
+        <v>7.387992849526837</v>
       </c>
       <c r="I16">
-        <v>21.2398759937863</v>
+        <v>10.98601043964807</v>
       </c>
       <c r="J16">
-        <v>7.495639813853806</v>
+        <v>5.84981241617901</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.06500774808546</v>
+        <v>9.140491415885032</v>
       </c>
       <c r="M16">
-        <v>16.81086519889287</v>
+        <v>16.10570562603563</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.79327382212323</v>
+        <v>11.73410809270723</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.76553843057495</v>
+        <v>25.57715214345449</v>
       </c>
       <c r="C17">
-        <v>13.45085096826535</v>
+        <v>14.03524170279847</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.02529512439468</v>
+        <v>9.547417362474585</v>
       </c>
       <c r="F17">
-        <v>34.38910741699656</v>
+        <v>23.35756479045952</v>
       </c>
       <c r="G17">
-        <v>24.95835322854191</v>
+        <v>18.02356497874707</v>
       </c>
       <c r="H17">
-        <v>13.36512525623044</v>
+        <v>7.420986973658317</v>
       </c>
       <c r="I17">
-        <v>21.29364786664594</v>
+        <v>11.12382497582956</v>
       </c>
       <c r="J17">
-        <v>7.485932032568288</v>
+        <v>5.81194670862496</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.05582950462814</v>
+        <v>9.051654514326657</v>
       </c>
       <c r="M17">
-        <v>16.73586179431123</v>
+        <v>15.82393762053919</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.83009919287086</v>
+        <v>11.74534434042073</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.61960726118326</v>
+        <v>25.26583032788469</v>
       </c>
       <c r="C18">
-        <v>13.42055496428433</v>
+        <v>13.94330717869636</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.03715834747496</v>
+        <v>9.566069044279162</v>
       </c>
       <c r="F18">
-        <v>34.40670432724318</v>
+        <v>23.27031058170309</v>
       </c>
       <c r="G18">
-        <v>24.9829401570527</v>
+        <v>17.94198070899611</v>
       </c>
       <c r="H18">
-        <v>13.37790670003685</v>
+        <v>7.440707664042471</v>
       </c>
       <c r="I18">
-        <v>21.32502998609387</v>
+        <v>11.20428074671458</v>
       </c>
       <c r="J18">
-        <v>7.480341344606763</v>
+        <v>5.790078066253496</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.05068515564438</v>
+        <v>9.000472919787651</v>
       </c>
       <c r="M18">
-        <v>16.69266921130548</v>
+        <v>15.65983968244391</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.85177424598132</v>
+        <v>11.75372963739937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.56989557738527</v>
+        <v>25.15958029008055</v>
       </c>
       <c r="C19">
-        <v>13.41028753574058</v>
+        <v>13.91206940679425</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.04121206287093</v>
+        <v>9.572473136291446</v>
       </c>
       <c r="F19">
-        <v>34.41281323828034</v>
+        <v>23.24117239234765</v>
       </c>
       <c r="G19">
-        <v>24.99144159532372</v>
+        <v>17.91499307036586</v>
       </c>
       <c r="H19">
-        <v>13.38227467475502</v>
+        <v>7.447509974959013</v>
       </c>
       <c r="I19">
-        <v>21.33573343599222</v>
+        <v>11.23172155624574</v>
       </c>
       <c r="J19">
-        <v>7.478447271907053</v>
+        <v>5.782658731780081</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.04896660016723</v>
+        <v>8.983130476844837</v>
       </c>
       <c r="M19">
-        <v>16.6780369319723</v>
+        <v>15.60393174179041</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.85919781690077</v>
+        <v>11.75689263692091</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.79240286045063</v>
+        <v>25.63437138604757</v>
       </c>
       <c r="C20">
-        <v>13.45645331446594</v>
+        <v>14.05220382648174</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.02311709376464</v>
+        <v>9.544007835197963</v>
       </c>
       <c r="F20">
-        <v>34.38592233158582</v>
+        <v>23.37390604522782</v>
       </c>
       <c r="G20">
-        <v>24.95388679363054</v>
+        <v>18.03896709067971</v>
       </c>
       <c r="H20">
-        <v>13.36277888710485</v>
+        <v>7.417397173984408</v>
       </c>
       <c r="I20">
-        <v>21.2878767841244</v>
+        <v>11.10903034784958</v>
       </c>
       <c r="J20">
-        <v>7.486966180728796</v>
+        <v>5.815986901016086</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.0567926218425</v>
+        <v>9.061120467029111</v>
       </c>
       <c r="M20">
-        <v>16.74385172231552</v>
+        <v>15.85414308856749</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.82612791371298</v>
+        <v>11.74394775058636</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.51856227848384</v>
+        <v>27.17130808335784</v>
       </c>
       <c r="C21">
-        <v>13.61079988680355</v>
+        <v>14.51507717768366</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.96489387015349</v>
+        <v>9.45469694896124</v>
       </c>
       <c r="F21">
-        <v>34.30608764760341</v>
+        <v>23.84816983699634</v>
       </c>
       <c r="G21">
-        <v>24.84006660420336</v>
+        <v>18.50017852445394</v>
       </c>
       <c r="H21">
-        <v>13.30008622104308</v>
+        <v>7.325290395240192</v>
       </c>
       <c r="I21">
-        <v>21.13250627903607</v>
+        <v>10.71134618323169</v>
       </c>
       <c r="J21">
-        <v>7.515501194294829</v>
+        <v>5.926873152334636</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.08468981134088</v>
+        <v>9.32204433100206</v>
       </c>
       <c r="M21">
-        <v>16.96427668058937</v>
+        <v>16.67041258100237</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.72092716079554</v>
+        <v>11.72389093983317</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.97670942423193</v>
+        <v>28.13265795199464</v>
       </c>
       <c r="C22">
-        <v>13.71100242911386</v>
+        <v>14.81134983391856</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.92875644740832</v>
+        <v>9.401215929524149</v>
       </c>
       <c r="F22">
-        <v>34.26176744897496</v>
+        <v>24.17935875706998</v>
       </c>
       <c r="G22">
-        <v>24.77496397655776</v>
+        <v>18.83533486354659</v>
       </c>
       <c r="H22">
-        <v>13.26120803988472</v>
+        <v>7.272290456458705</v>
       </c>
       <c r="I22">
-        <v>21.03499756229473</v>
+        <v>10.46311503790801</v>
       </c>
       <c r="J22">
-        <v>7.534077645792538</v>
+        <v>5.998474327995475</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.10410070936297</v>
+        <v>9.491531501422127</v>
       </c>
       <c r="M22">
-        <v>17.10764225610378</v>
+        <v>17.18544986788888</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.65659174495469</v>
+        <v>11.72931154081391</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.73371945927919</v>
+        <v>27.6234923357758</v>
       </c>
       <c r="C23">
-        <v>13.65759044077604</v>
+        <v>14.65381323920331</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.94786866542674</v>
+        <v>9.429301020530113</v>
       </c>
       <c r="F23">
-        <v>34.28470195709956</v>
+        <v>24.0006473696891</v>
       </c>
       <c r="G23">
-        <v>24.80885619936807</v>
+        <v>18.65334840659817</v>
       </c>
       <c r="H23">
-        <v>13.28176632637694</v>
+        <v>7.299889791506216</v>
       </c>
       <c r="I23">
-        <v>21.08667095964923</v>
+        <v>10.59447286165005</v>
       </c>
       <c r="J23">
-        <v>7.524170205957638</v>
+        <v>5.960342432795033</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.09363397696724</v>
+        <v>9.401181345018035</v>
       </c>
       <c r="M23">
-        <v>17.03119977167112</v>
+        <v>16.91226600394092</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.69052343754823</v>
+        <v>11.72465524737068</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.78026317917763</v>
+        <v>25.60851823669832</v>
       </c>
       <c r="C24">
-        <v>13.45392072228453</v>
+        <v>14.04453741185996</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.02410109368179</v>
+        <v>9.545547628679207</v>
       </c>
       <c r="F24">
-        <v>34.38735954638747</v>
+        <v>23.36651093451945</v>
       </c>
       <c r="G24">
-        <v>24.95590282333536</v>
+        <v>18.03199233540219</v>
       </c>
       <c r="H24">
-        <v>13.36383893021016</v>
+        <v>7.419017786574382</v>
       </c>
       <c r="I24">
-        <v>21.29048443279024</v>
+        <v>11.1157151968862</v>
       </c>
       <c r="J24">
-        <v>7.486498671991779</v>
+        <v>5.814160637999046</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.05635678407794</v>
+        <v>9.05684124317734</v>
       </c>
       <c r="M24">
-        <v>16.74023969798138</v>
+        <v>15.84049375124394</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.82792176037239</v>
+        <v>11.74457316725645</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.68442937415515</v>
+        <v>23.24783551210387</v>
       </c>
       <c r="C25">
-        <v>13.23201172401517</v>
+        <v>13.3626486639731</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.11457198307792</v>
+        <v>9.690839923363756</v>
       </c>
       <c r="F25">
-        <v>34.531690639674</v>
+        <v>22.77255694077956</v>
       </c>
       <c r="G25">
-        <v>25.15389258374428</v>
+        <v>17.50321621709755</v>
       </c>
       <c r="H25">
-        <v>13.46136051961372</v>
+        <v>7.575650866500114</v>
       </c>
       <c r="I25">
-        <v>21.52769172444755</v>
+        <v>11.7230075294331</v>
       </c>
       <c r="J25">
-        <v>7.445600883316331</v>
+        <v>5.653116572858736</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.02130944025232</v>
+        <v>8.68237064639057</v>
       </c>
       <c r="M25">
-        <v>16.42451879598883</v>
+        <v>14.60707001113149</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.99500630637785</v>
+        <v>11.8387213182693</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.34629795453958</v>
+        <v>18.98065575149682</v>
       </c>
       <c r="C2">
-        <v>12.8419874002195</v>
+        <v>15.50748723496388</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.813843518255485</v>
+        <v>14.10572447071994</v>
       </c>
       <c r="F2">
-        <v>22.41061734991862</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>17.2294639711992</v>
+        <v>30.79796703770709</v>
       </c>
       <c r="H2">
-        <v>7.71241593505489</v>
+        <v>2.21460250437976</v>
       </c>
       <c r="I2">
-        <v>12.20455933760429</v>
+        <v>3.227951633215399</v>
       </c>
       <c r="J2">
-        <v>5.532062892618482</v>
+        <v>10.07215812066778</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.47080602084407</v>
       </c>
       <c r="L2">
-        <v>8.405721890943102</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.63511409504036</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.96294167526942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.45232343590783</v>
+      </c>
+      <c r="P2">
+        <v>11.92070281287394</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.95464419310018</v>
+        <v>17.72520266331358</v>
       </c>
       <c r="C3">
-        <v>12.47914573344597</v>
+        <v>14.52726129223371</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.906703677441778</v>
+        <v>13.39214705871422</v>
       </c>
       <c r="F3">
-        <v>22.21080568826981</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>17.1115608259299</v>
+        <v>29.39531817168793</v>
       </c>
       <c r="H3">
-        <v>7.817242121338418</v>
+        <v>1.987321482273494</v>
       </c>
       <c r="I3">
-        <v>12.55075564480183</v>
+        <v>3.045095144041928</v>
       </c>
       <c r="J3">
-        <v>5.448708463767007</v>
+        <v>9.912788153271908</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.36550723525462</v>
       </c>
       <c r="L3">
-        <v>8.218612808879136</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.93867586511964</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.07763157684895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.43471765598207</v>
+      </c>
+      <c r="P3">
+        <v>12.06019452306228</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04908521567842</v>
+        <v>16.90507623518631</v>
       </c>
       <c r="C4">
-        <v>12.25205832553521</v>
+        <v>13.89494543453859</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.968253925179065</v>
+        <v>12.93430804350745</v>
       </c>
       <c r="F4">
-        <v>22.10987924280372</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>17.07063229932725</v>
+        <v>28.51147023473299</v>
       </c>
       <c r="H4">
-        <v>7.887224893188693</v>
+        <v>1.843033677753334</v>
       </c>
       <c r="I4">
-        <v>12.77269499512879</v>
+        <v>2.92975037032573</v>
       </c>
       <c r="J4">
-        <v>5.396962471459622</v>
+        <v>9.816977342487244</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.30461020677353</v>
       </c>
       <c r="L4">
-        <v>8.104259272289854</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.49338956179816</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.16189713396981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.77772365470972</v>
+      </c>
+      <c r="P4">
+        <v>12.14735368991714</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66718514557897</v>
+        <v>16.55096917335917</v>
       </c>
       <c r="C5">
-        <v>12.15854030548121</v>
+        <v>13.63572427032442</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.99445477721682</v>
+        <v>12.74328818877362</v>
       </c>
       <c r="F5">
-        <v>22.07410606425358</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>17.06154680315862</v>
+        <v>28.1209853379262</v>
       </c>
       <c r="H5">
-        <v>7.917105410707075</v>
+        <v>1.78277112580264</v>
       </c>
       <c r="I5">
-        <v>12.86544197549539</v>
+        <v>2.882240396967224</v>
       </c>
       <c r="J5">
-        <v>5.375746380414846</v>
+        <v>9.77385956135166</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.27165681137265</v>
       </c>
       <c r="L5">
-        <v>8.057847591090466</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.30766370314669</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.19954465352056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.50079539989004</v>
+      </c>
+      <c r="P5">
+        <v>12.18331982938258</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.60299234847551</v>
+        <v>16.48230691646996</v>
       </c>
       <c r="C6">
-        <v>12.14295581636036</v>
+        <v>13.59968989053614</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.998872368067646</v>
+        <v>12.71181513349567</v>
       </c>
       <c r="F6">
-        <v>22.06848567200898</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>17.06048682930076</v>
+        <v>28.02518509638689</v>
       </c>
       <c r="H6">
-        <v>7.922147887059501</v>
+        <v>1.77238393178691</v>
       </c>
       <c r="I6">
-        <v>12.88098039205822</v>
+        <v>2.874840722330169</v>
       </c>
       <c r="J6">
-        <v>5.372216053446129</v>
+        <v>9.761108300356058</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.25518513716242</v>
       </c>
       <c r="L6">
-        <v>8.050153956347536</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.27657206375167</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.2059908926619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.45284311741246</v>
+      </c>
+      <c r="P6">
+        <v>12.18940034869626</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04398695670547</v>
+        <v>16.87606233062455</v>
       </c>
       <c r="C7">
-        <v>12.25080092637269</v>
+        <v>13.91141762306285</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.968602777138422</v>
+        <v>12.93320571703879</v>
       </c>
       <c r="F7">
-        <v>22.10937527610499</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>17.07047946962509</v>
+        <v>28.42379691638957</v>
       </c>
       <c r="H7">
-        <v>7.887622422395052</v>
+        <v>1.84139919071341</v>
       </c>
       <c r="I7">
-        <v>12.77393654336616</v>
+        <v>2.930233767287441</v>
       </c>
       <c r="J7">
-        <v>5.396676849257689</v>
+        <v>9.801116160185771</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.27404023846135</v>
       </c>
       <c r="L7">
-        <v>8.103632512740996</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.49090182320564</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.16239168901629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.77003396978407</v>
+      </c>
+      <c r="P7">
+        <v>12.1481563079102</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.87703428975966</v>
+        <v>18.52828508392217</v>
       </c>
       <c r="C8">
-        <v>12.71783190180136</v>
+        <v>15.20023746526578</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.844907461809568</v>
+        <v>13.86565754628915</v>
       </c>
       <c r="F8">
-        <v>22.33714156865916</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>17.1820995823081</v>
+        <v>30.21612910230117</v>
       </c>
       <c r="H8">
-        <v>7.747361926365872</v>
+        <v>2.136159875892959</v>
       </c>
       <c r="I8">
-        <v>12.32194816965126</v>
+        <v>3.166492212943522</v>
       </c>
       <c r="J8">
-        <v>5.503447541184134</v>
+        <v>9.996985095513484</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.39424645317111</v>
       </c>
       <c r="L8">
-        <v>8.341128467754947</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.39874489412131</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.99950722419234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.10326872147695</v>
+      </c>
+      <c r="P8">
+        <v>11.96931863989717</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.06826376707248</v>
+        <v>21.41875775642777</v>
       </c>
       <c r="C9">
-        <v>13.59542564144155</v>
+        <v>17.45471953161294</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.639338855613369</v>
+        <v>15.53332540373612</v>
       </c>
       <c r="F9">
-        <v>22.9607535630152</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>17.66288806650432</v>
+        <v>33.67189226336792</v>
       </c>
       <c r="H9">
-        <v>7.519383885985468</v>
+        <v>2.679021122871806</v>
       </c>
       <c r="I9">
-        <v>11.51284430909167</v>
+        <v>3.605514744018085</v>
       </c>
       <c r="J9">
-        <v>5.707778624961127</v>
+        <v>10.42345923296364</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.71474323317102</v>
       </c>
       <c r="L9">
-        <v>8.808776062497783</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.03268027058112</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.79797355290678</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.46537801518078</v>
+      </c>
+      <c r="P9">
+        <v>11.62894226529965</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.17004545598031</v>
+        <v>23.27533559533345</v>
       </c>
       <c r="C10">
-        <v>14.21196085646539</v>
+        <v>18.91597417647504</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.512374974380208</v>
+        <v>16.1799594815828</v>
       </c>
       <c r="F10">
-        <v>23.53147231586409</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>18.18930627114246</v>
+        <v>35.70064319483203</v>
       </c>
       <c r="H10">
-        <v>7.38433061287464</v>
+        <v>3.031482015644761</v>
       </c>
       <c r="I10">
-        <v>10.97044926785538</v>
+        <v>3.908354759600348</v>
       </c>
       <c r="J10">
-        <v>5.854120795940266</v>
+        <v>10.66860176029035</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.84666147399538</v>
       </c>
       <c r="L10">
-        <v>9.150615793934579</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>16.13758056308044</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.73309128367824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.73892611072576</v>
+      </c>
+      <c r="P10">
+        <v>11.39608563537462</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.07423719756792</v>
+        <v>23.83257906157942</v>
       </c>
       <c r="C11">
-        <v>14.48544133629376</v>
+        <v>19.08513372519101</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.46020288922084</v>
+        <v>12.62304948480895</v>
       </c>
       <c r="F11">
-        <v>23.81620323013989</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>18.46833411251453</v>
+        <v>33.57344899115519</v>
       </c>
       <c r="H11">
-        <v>7.330848663449026</v>
+        <v>3.604982729469002</v>
       </c>
       <c r="I11">
-        <v>10.73645363587145</v>
+        <v>3.987358943637225</v>
       </c>
       <c r="J11">
-        <v>5.919737426308166</v>
+        <v>10.1537778550514</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.91520333135854</v>
       </c>
       <c r="L11">
-        <v>9.305193283224716</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>16.61858972277922</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.72413260260732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.71906274350354</v>
+      </c>
+      <c r="P11">
+        <v>11.42426635745303</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.40923066075259</v>
+        <v>23.95655365659287</v>
       </c>
       <c r="C12">
-        <v>14.58793559441523</v>
+        <v>18.90973578284825</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.441282311249843</v>
+        <v>10.12338990396627</v>
       </c>
       <c r="F12">
-        <v>23.92766591689881</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>18.57977960140032</v>
+        <v>31.42925588801084</v>
       </c>
       <c r="H12">
-        <v>7.311823577456801</v>
+        <v>4.634397216783745</v>
       </c>
       <c r="I12">
-        <v>10.64983197850819</v>
+        <v>3.995476258319809</v>
       </c>
       <c r="J12">
-        <v>5.944436650298216</v>
+        <v>9.683074513938623</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.14765976737521</v>
       </c>
       <c r="L12">
-        <v>9.363552617561682</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16.79757597345595</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.72390280943247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.73874728239976</v>
+      </c>
+      <c r="P12">
+        <v>11.54263535350219</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.33741211647203</v>
+        <v>23.73131384068465</v>
       </c>
       <c r="C13">
-        <v>14.56590998034251</v>
+        <v>18.47686752837814</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.445319475565956</v>
+        <v>8.768637444151455</v>
       </c>
       <c r="F13">
-        <v>23.90349812760301</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>18.55551950723071</v>
+        <v>28.97099234123543</v>
       </c>
       <c r="H13">
-        <v>7.315864987448467</v>
+        <v>5.819561979931613</v>
       </c>
       <c r="I13">
-        <v>10.66839632245903</v>
+        <v>3.951106924693701</v>
       </c>
       <c r="J13">
-        <v>5.939123996945044</v>
+        <v>9.190817374504686</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.41449892854497</v>
       </c>
       <c r="L13">
-        <v>9.350992344912768</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>16.75916937762598</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.72380836382934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.60698388257114</v>
+      </c>
+      <c r="P13">
+        <v>11.72890843334871</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.1019453400688</v>
+        <v>23.40755666815451</v>
       </c>
       <c r="C14">
-        <v>14.49389531137832</v>
+        <v>18.05724055571008</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.458629334358196</v>
+        <v>8.796897313831279</v>
       </c>
       <c r="F14">
-        <v>23.82530022383724</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>18.47738648605469</v>
+        <v>27.05728009416161</v>
       </c>
       <c r="H14">
-        <v>7.329258359725543</v>
+        <v>6.70379679866093</v>
       </c>
       <c r="I14">
-        <v>10.7292863950322</v>
+        <v>3.897492829192005</v>
       </c>
       <c r="J14">
-        <v>5.921772480406473</v>
+        <v>8.832527070276626</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.91607584354153</v>
       </c>
       <c r="L14">
-        <v>9.309998293773397</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>16.63337864143344</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.72404913394149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.02017608949667</v>
+      </c>
+      <c r="P14">
+        <v>11.8922497775743</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.95675276572817</v>
+        <v>23.24494088896153</v>
       </c>
       <c r="C15">
-        <v>14.44964359335125</v>
+        <v>17.90350489530541</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.466891871500923</v>
+        <v>8.927195089850425</v>
       </c>
       <c r="F15">
-        <v>23.77787665054008</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>18.43028308765199</v>
+        <v>26.49415581943941</v>
       </c>
       <c r="H15">
-        <v>7.33762460967048</v>
+        <v>6.905983958981622</v>
       </c>
       <c r="I15">
-        <v>10.76684724953656</v>
+        <v>3.873109666676372</v>
       </c>
       <c r="J15">
-        <v>5.911124538761348</v>
+        <v>8.736666461239585</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.79380537796615</v>
       </c>
       <c r="L15">
-        <v>9.28486416370418</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>16.55591514432268</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.72461459691356</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.59619437587454</v>
+      </c>
+      <c r="P15">
+        <v>11.94151894566203</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.10991483719485</v>
+        <v>22.50526232249604</v>
       </c>
       <c r="C16">
-        <v>14.1939421894213</v>
+        <v>17.36839159587227</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.515899673133362</v>
+        <v>8.76160702750599</v>
       </c>
       <c r="F16">
-        <v>23.51337264042605</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>18.17187625468141</v>
+        <v>25.9146640270239</v>
       </c>
       <c r="H16">
-        <v>7.387992849526837</v>
+        <v>6.6321859699827</v>
       </c>
       <c r="I16">
-        <v>10.98601043964807</v>
+        <v>3.754554806392706</v>
       </c>
       <c r="J16">
-        <v>5.84981241617901</v>
+        <v>8.71213138041389</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.86750351858941</v>
       </c>
       <c r="L16">
-        <v>9.140491415885032</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>16.10570562603563</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.73410809270723</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.33931613824305</v>
+      </c>
+      <c r="P16">
+        <v>11.98250532149746</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.57715214345449</v>
+        <v>22.1047477018051</v>
       </c>
       <c r="C17">
-        <v>14.03524170279847</v>
+        <v>17.1845193600764</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.547417362474585</v>
+        <v>8.440533573028834</v>
       </c>
       <c r="F17">
-        <v>23.35756479045952</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>18.02356497874707</v>
+        <v>26.53329110550999</v>
       </c>
       <c r="H17">
-        <v>7.420986973658317</v>
+        <v>5.901725551064853</v>
       </c>
       <c r="I17">
-        <v>11.12382497582956</v>
+        <v>3.691622635886445</v>
       </c>
       <c r="J17">
-        <v>5.81194670862496</v>
+        <v>8.885749564466854</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.18471351116412</v>
       </c>
       <c r="L17">
-        <v>9.051654514326657</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>15.82393762053919</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.74534434042073</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.02288954847922</v>
+      </c>
+      <c r="P17">
+        <v>11.92864304388047</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.26583032788469</v>
+        <v>21.98005490373142</v>
       </c>
       <c r="C18">
-        <v>13.94330717869636</v>
+        <v>17.27985474308165</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.566069044279162</v>
+        <v>8.894111312854239</v>
       </c>
       <c r="F18">
-        <v>23.27031058170309</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>17.94198070899611</v>
+        <v>28.30719115168319</v>
       </c>
       <c r="H18">
-        <v>7.440707664042471</v>
+        <v>4.752501185586318</v>
       </c>
       <c r="I18">
-        <v>11.20428074671458</v>
+        <v>3.67073422926804</v>
       </c>
       <c r="J18">
-        <v>5.790078066253496</v>
+        <v>9.260064723534704</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.77709340993031</v>
       </c>
       <c r="L18">
-        <v>9.000472919787651</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>15.65983968244391</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.75372963739937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.60736169844124</v>
+      </c>
+      <c r="P18">
+        <v>11.8023573533155</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.15958029008055</v>
+        <v>22.05473560010011</v>
       </c>
       <c r="C19">
-        <v>13.91206940679425</v>
+        <v>17.62615812529872</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.572473136291446</v>
+        <v>11.02403753539976</v>
       </c>
       <c r="F19">
-        <v>23.24117239234765</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>17.91499307036586</v>
+        <v>30.71958363001256</v>
       </c>
       <c r="H19">
-        <v>7.447509974959013</v>
+        <v>3.553795491616631</v>
       </c>
       <c r="I19">
-        <v>11.23172155624574</v>
+        <v>3.694526345647779</v>
       </c>
       <c r="J19">
-        <v>5.782658731780081</v>
+        <v>9.744408571810688</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.51647452232621</v>
       </c>
       <c r="L19">
-        <v>8.983130476844837</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>15.60393174179041</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.75689263692091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.77623788009736</v>
+      </c>
+      <c r="P19">
+        <v>11.66358374012325</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.63437138604757</v>
+        <v>22.74344302125452</v>
       </c>
       <c r="C20">
-        <v>14.05220382648174</v>
+        <v>18.58704926446836</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.544007835197963</v>
+        <v>15.99466299447714</v>
       </c>
       <c r="F20">
-        <v>23.37390604522782</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>18.03896709067971</v>
+        <v>34.94920222883916</v>
       </c>
       <c r="H20">
-        <v>7.417397173984408</v>
+        <v>2.935729432133213</v>
       </c>
       <c r="I20">
-        <v>11.10903034784958</v>
+        <v>3.833536620228808</v>
       </c>
       <c r="J20">
-        <v>5.815986901016086</v>
+        <v>10.55659001389357</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.71609193456118</v>
       </c>
       <c r="L20">
-        <v>9.061120467029111</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>15.85414308856749</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.74394775058636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.38926950912326</v>
+      </c>
+      <c r="P20">
+        <v>11.46145890106849</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17130808335784</v>
+        <v>24.15005021946752</v>
       </c>
       <c r="C21">
-        <v>14.51507717768366</v>
+        <v>19.73992435258644</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.45469694896124</v>
+        <v>17.20843482623703</v>
       </c>
       <c r="F21">
-        <v>23.84816983699634</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>18.50017852445394</v>
+        <v>37.04508182349137</v>
       </c>
       <c r="H21">
-        <v>7.325290395240192</v>
+        <v>3.240891764689715</v>
       </c>
       <c r="I21">
-        <v>10.71134618323169</v>
+        <v>4.0724901383055</v>
       </c>
       <c r="J21">
-        <v>5.926873152334636</v>
+        <v>10.86673863587806</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.01708773850345</v>
       </c>
       <c r="L21">
-        <v>9.32204433100206</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>16.67041258100237</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.72389093983317</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>21.78488463958268</v>
+      </c>
+      <c r="P21">
+        <v>11.26899130403877</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.13265795199464</v>
+        <v>25.03744823782564</v>
       </c>
       <c r="C22">
-        <v>14.81134983391856</v>
+        <v>20.41988482286138</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.401215929524149</v>
+        <v>17.73347500105919</v>
       </c>
       <c r="F22">
-        <v>24.17935875706998</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>18.83533486354659</v>
+        <v>38.29165196994401</v>
       </c>
       <c r="H22">
-        <v>7.272290456458705</v>
+        <v>3.424265670178418</v>
       </c>
       <c r="I22">
-        <v>10.46311503790801</v>
+        <v>4.221489230612407</v>
       </c>
       <c r="J22">
-        <v>5.998474327995475</v>
+        <v>11.05242711127331</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.19809703987145</v>
       </c>
       <c r="L22">
-        <v>9.491531501422127</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>17.18544986788888</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.72931154081391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>22.51634232969844</v>
+      </c>
+      <c r="P22">
+        <v>11.14718119187087</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.6234923357758</v>
+        <v>24.58838229749876</v>
       </c>
       <c r="C23">
-        <v>14.65381323920331</v>
+        <v>20.04222072375361</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.429301020530113</v>
+        <v>17.4534850491816</v>
       </c>
       <c r="F23">
-        <v>24.0006473696891</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>18.65334840659817</v>
+        <v>37.70410010043497</v>
       </c>
       <c r="H23">
-        <v>7.299889791506216</v>
+        <v>3.327509187615089</v>
       </c>
       <c r="I23">
-        <v>10.59447286165005</v>
+        <v>4.140536637184717</v>
       </c>
       <c r="J23">
-        <v>5.960342432795033</v>
+        <v>10.96930677346303</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.13435060350566</v>
       </c>
       <c r="L23">
-        <v>9.401181345018035</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.91226600394092</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.72465524737068</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>22.13219338282853</v>
+      </c>
+      <c r="P23">
+        <v>11.2102420694049</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.60851823669832</v>
+        <v>22.77364361235309</v>
       </c>
       <c r="C24">
-        <v>14.04453741185996</v>
+        <v>18.58622179954612</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.545547628679207</v>
+        <v>16.35924912798964</v>
       </c>
       <c r="F24">
-        <v>23.36651093451945</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>18.03199233540219</v>
+        <v>35.30999293874263</v>
       </c>
       <c r="H24">
-        <v>7.419017786574382</v>
+        <v>2.953233396450412</v>
       </c>
       <c r="I24">
-        <v>11.1157151968862</v>
+        <v>3.832286687047214</v>
       </c>
       <c r="J24">
-        <v>5.814160637999046</v>
+        <v>10.63291760994194</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.85123004824597</v>
       </c>
       <c r="L24">
-        <v>9.05684124317734</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>15.84049375124394</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.74457316725645</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>20.61275053579854</v>
+      </c>
+      <c r="P24">
+        <v>11.45417927083788</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24783551210387</v>
+        <v>20.64134221469188</v>
       </c>
       <c r="C25">
-        <v>13.3626486639731</v>
+        <v>16.90064341869132</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.690839923363756</v>
+        <v>15.10174510992994</v>
       </c>
       <c r="F25">
-        <v>22.77255694077956</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>17.50321621709755</v>
+        <v>32.62968391419061</v>
       </c>
       <c r="H25">
-        <v>7.575650866500114</v>
+        <v>2.534574296317964</v>
       </c>
       <c r="I25">
-        <v>11.7230075294331</v>
+        <v>3.491072508210225</v>
       </c>
       <c r="J25">
-        <v>5.653116572858736</v>
+        <v>10.28026476828684</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.57150439910853</v>
       </c>
       <c r="L25">
-        <v>8.68237064639057</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>14.60707001113149</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.8387213182693</v>
+        <v>18.84830699407472</v>
+      </c>
+      <c r="P25">
+        <v>11.72169957926663</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.98065575149682</v>
+        <v>18.44406953507296</v>
       </c>
       <c r="C2">
-        <v>15.50748723496388</v>
+        <v>15.83393919559301</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.10572447071994</v>
+        <v>14.10190256646967</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>30.79796703770709</v>
+        <v>28.41809668131803</v>
       </c>
       <c r="H2">
-        <v>2.21460250437976</v>
+        <v>2.185017407510258</v>
       </c>
       <c r="I2">
-        <v>3.227951633215399</v>
+        <v>3.20030912117186</v>
       </c>
       <c r="J2">
-        <v>10.07215812066778</v>
+        <v>10.27916711928624</v>
       </c>
       <c r="K2">
-        <v>14.47080602084407</v>
+        <v>13.73386437661921</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.32210596482914</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.143007201013456</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.45232343590783</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.92070281287394</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.36721070618761</v>
+      </c>
+      <c r="R2">
+        <v>11.94390687987258</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.72520266331358</v>
+        <v>17.2744166293438</v>
       </c>
       <c r="C3">
-        <v>14.52726129223371</v>
+        <v>14.79184899910299</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.39214705871422</v>
+        <v>13.40630062771931</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>29.39531817168793</v>
+        <v>27.24359302426398</v>
       </c>
       <c r="H3">
-        <v>1.987321482273494</v>
+        <v>1.970708158247809</v>
       </c>
       <c r="I3">
-        <v>3.045095144041928</v>
+        <v>3.043828141610071</v>
       </c>
       <c r="J3">
-        <v>9.912788153271908</v>
+        <v>10.13921025721926</v>
       </c>
       <c r="K3">
-        <v>14.36550723525462</v>
+        <v>13.713931527323</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.43376409273944</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.969330488213293</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.43471765598207</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.06019452306228</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.36525624885224</v>
+      </c>
+      <c r="R3">
+        <v>12.05659989080647</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.90507623518631</v>
+        <v>16.50998377587126</v>
       </c>
       <c r="C4">
-        <v>13.89494543453859</v>
+        <v>14.11860521592003</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.93430804350745</v>
+        <v>12.96035731965247</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>28.51147023473299</v>
+        <v>26.50589500949551</v>
       </c>
       <c r="H4">
-        <v>1.843033677753334</v>
+        <v>1.834539936113685</v>
       </c>
       <c r="I4">
-        <v>2.92975037032573</v>
+        <v>2.945186223979956</v>
       </c>
       <c r="J4">
-        <v>9.816977342487244</v>
+        <v>10.05248970522823</v>
       </c>
       <c r="K4">
-        <v>14.30461020677353</v>
+        <v>13.70380723284392</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.50145608946625</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.884839157208032</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.77772365470972</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.14735368991714</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.71813660154736</v>
+      </c>
+      <c r="R4">
+        <v>12.127972649451</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.55096917335917</v>
+        <v>16.17971516545936</v>
       </c>
       <c r="C5">
-        <v>13.63572427032442</v>
+        <v>13.84183865991147</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.74328818877362</v>
+        <v>12.77443595635893</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>28.1209853379262</v>
+        <v>26.17737366249943</v>
       </c>
       <c r="H5">
-        <v>1.78277112580264</v>
+        <v>1.77765176217603</v>
       </c>
       <c r="I5">
-        <v>2.882240396967224</v>
+        <v>2.904905153537768</v>
       </c>
       <c r="J5">
-        <v>9.77385956135166</v>
+        <v>10.01273735051954</v>
       </c>
       <c r="K5">
-        <v>14.27165681137265</v>
+        <v>13.69197643838343</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.52196373071583</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.850555634436783</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.50079539989004</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.18331982938258</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.44535978561908</v>
+      </c>
+      <c r="R5">
+        <v>12.15791692204374</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.48230691646996</v>
+        <v>16.11550749072798</v>
       </c>
       <c r="C6">
-        <v>13.59968989053614</v>
+        <v>13.80269055760703</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.71181513349567</v>
+        <v>12.74384437783903</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>28.02518509638689</v>
+        <v>26.09318830756759</v>
       </c>
       <c r="H6">
-        <v>1.77238393178691</v>
+        <v>1.767856311655347</v>
       </c>
       <c r="I6">
-        <v>2.874840722330169</v>
+        <v>2.899107348065169</v>
       </c>
       <c r="J6">
-        <v>9.761108300356058</v>
+        <v>10.0009546319206</v>
       </c>
       <c r="K6">
-        <v>14.25518513716242</v>
+        <v>13.68003260111564</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.51698599146329</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.838374275242112</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.45284311741246</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.18940034869626</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.39817217712137</v>
+      </c>
+      <c r="R6">
+        <v>12.16331851976891</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.87606233062455</v>
+        <v>16.47235233927146</v>
       </c>
       <c r="C7">
-        <v>13.91141762306285</v>
+        <v>14.11632146469843</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.93320571703879</v>
+        <v>12.96293155947799</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>28.42379691638957</v>
+        <v>26.4984796921403</v>
       </c>
       <c r="H7">
-        <v>1.84139919071341</v>
+        <v>1.832431396428314</v>
       </c>
       <c r="I7">
-        <v>2.930233767287441</v>
+        <v>2.945947694156742</v>
       </c>
       <c r="J7">
-        <v>9.801116160185771</v>
+        <v>9.982982455169624</v>
       </c>
       <c r="K7">
-        <v>14.27404023846135</v>
+        <v>13.66398331994229</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.46911248068268</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.856374503532006</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.77003396978407</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.1481563079102</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.70499838900338</v>
+      </c>
+      <c r="R7">
+        <v>12.13024980260063</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.52828508392217</v>
+        <v>17.99106075453988</v>
       </c>
       <c r="C8">
-        <v>15.20023746526578</v>
+        <v>15.44983653444719</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.86565754628915</v>
+        <v>13.8792592842001</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>30.21612910230117</v>
+        <v>28.15826777010362</v>
       </c>
       <c r="H8">
-        <v>2.136159875892959</v>
+        <v>2.109254239125367</v>
       </c>
       <c r="I8">
-        <v>3.166492212943522</v>
+        <v>3.146505160070411</v>
       </c>
       <c r="J8">
-        <v>9.996985095513484</v>
+        <v>10.0348733860555</v>
       </c>
       <c r="K8">
-        <v>14.39424645317111</v>
+        <v>13.65040487755656</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.30193376928729</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.019738164840598</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.10326872147695</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.96931863989717</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.00613129166888</v>
+      </c>
+      <c r="R8">
+        <v>11.98735649602755</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.41875775642777</v>
+        <v>20.67807821931908</v>
       </c>
       <c r="C9">
-        <v>17.45471953161294</v>
+        <v>17.83573765932926</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.53332540373612</v>
+        <v>15.50801022906786</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>33.67189226336792</v>
+        <v>31.11853999236185</v>
       </c>
       <c r="H9">
-        <v>2.679021122871806</v>
+        <v>2.62003855926639</v>
       </c>
       <c r="I9">
-        <v>3.605514744018085</v>
+        <v>3.520736308874007</v>
       </c>
       <c r="J9">
-        <v>10.42345923296364</v>
+        <v>10.35354979524089</v>
       </c>
       <c r="K9">
-        <v>14.71474323317102</v>
+        <v>13.73574377047131</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.04058592162044</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.577686368742571</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.46537801518078</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.62894226529965</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.32783120934121</v>
+      </c>
+      <c r="R9">
+        <v>11.71908265919473</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.27533559533345</v>
+        <v>22.36388023733487</v>
       </c>
       <c r="C10">
-        <v>18.91597417647504</v>
+        <v>19.29094919985451</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.1799594815828</v>
+        <v>16.14066482093924</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>35.70064319483203</v>
+        <v>33.21825991541727</v>
       </c>
       <c r="H10">
-        <v>3.031482015644761</v>
+        <v>2.947499469977364</v>
       </c>
       <c r="I10">
-        <v>3.908354759600348</v>
+        <v>3.77586849602711</v>
       </c>
       <c r="J10">
-        <v>10.66860176029035</v>
+        <v>10.22774303916529</v>
       </c>
       <c r="K10">
-        <v>14.84666147399538</v>
+        <v>13.64279278596928</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.7307297525701</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.926114637386492</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.73892611072576</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.39608563537462</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.54920514728744</v>
+      </c>
+      <c r="R10">
+        <v>11.55835995744158</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.83257906157942</v>
+        <v>22.85671105657445</v>
       </c>
       <c r="C11">
-        <v>19.08513372519101</v>
+        <v>19.25247518567702</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.62304948480895</v>
+        <v>12.53293010851362</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>33.57344899115519</v>
+        <v>32.04842653294659</v>
       </c>
       <c r="H11">
-        <v>3.604982729469002</v>
+        <v>3.528849481466634</v>
       </c>
       <c r="I11">
-        <v>3.987358943637225</v>
+        <v>3.83914402041896</v>
       </c>
       <c r="J11">
-        <v>10.1537778550514</v>
+        <v>9.198629924609907</v>
       </c>
       <c r="K11">
-        <v>13.91520333135854</v>
+        <v>12.69415765358856</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.00707740876882</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.287608608998804</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.71906274350354</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.42426635745303</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.48320158131461</v>
+      </c>
+      <c r="R11">
+        <v>11.69254512564074</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.95655365659287</v>
+        <v>22.98693279429752</v>
       </c>
       <c r="C12">
-        <v>18.90973578284825</v>
+        <v>18.95241000449696</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.12338990396627</v>
+        <v>9.937643919322179</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>31.42925588801084</v>
+        <v>30.47495455506728</v>
       </c>
       <c r="H12">
-        <v>4.634397216783745</v>
+        <v>4.576280057944226</v>
       </c>
       <c r="I12">
-        <v>3.995476258319809</v>
+        <v>3.843660853357011</v>
       </c>
       <c r="J12">
-        <v>9.683074513938623</v>
+        <v>8.581289834803734</v>
       </c>
       <c r="K12">
-        <v>13.14765976737521</v>
+        <v>12.00802079728672</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.54383500426495</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.735346147550507</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.73874728239976</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.54263535350219</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.49080904554373</v>
+      </c>
+      <c r="R12">
+        <v>11.87375048511363</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.73131384068465</v>
+        <v>22.8440069921963</v>
       </c>
       <c r="C13">
-        <v>18.47686752837814</v>
+        <v>18.48044513295474</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.768637444151455</v>
+        <v>8.469871150442829</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>28.97099234123543</v>
+        <v>28.17888550961704</v>
       </c>
       <c r="H13">
-        <v>5.819561979931613</v>
+        <v>5.777628364559535</v>
       </c>
       <c r="I13">
-        <v>3.951106924693701</v>
+        <v>3.807746692024287</v>
       </c>
       <c r="J13">
-        <v>9.190817374504686</v>
+        <v>8.291129016410547</v>
       </c>
       <c r="K13">
-        <v>12.41449892854497</v>
+        <v>11.46334826264003</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.22141630584434</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.205206663406422</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.60698388257114</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.72890843334871</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.38294604724067</v>
+      </c>
+      <c r="R13">
+        <v>12.07841769011959</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.40755666815451</v>
+        <v>22.61287816181004</v>
       </c>
       <c r="C14">
-        <v>18.05724055571008</v>
+        <v>18.06961116602923</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.796897313831279</v>
+        <v>8.460364782789821</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>27.05728009416161</v>
+        <v>26.20188219018275</v>
       </c>
       <c r="H14">
-        <v>6.70379679866093</v>
+        <v>6.671121862866848</v>
       </c>
       <c r="I14">
-        <v>3.897492829192005</v>
+        <v>3.765652647219579</v>
       </c>
       <c r="J14">
-        <v>8.832527070276626</v>
+        <v>8.210662297116873</v>
       </c>
       <c r="K14">
-        <v>11.91607584354153</v>
+        <v>11.13907693564987</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.04841265940533</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.840597985285307</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.02017608949667</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.8922497775743</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.82870955027938</v>
+      </c>
+      <c r="R14">
+        <v>12.23044323326132</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.24494088896153</v>
+        <v>22.48843268728381</v>
       </c>
       <c r="C15">
-        <v>17.90350489530541</v>
+        <v>17.93338970140972</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.927195089850425</v>
+        <v>8.595739161291458</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>26.49415581943941</v>
+        <v>25.54853188589444</v>
       </c>
       <c r="H15">
-        <v>6.905983958981622</v>
+        <v>6.87580890555175</v>
       </c>
       <c r="I15">
-        <v>3.873109666676372</v>
+        <v>3.747168489732081</v>
       </c>
       <c r="J15">
-        <v>8.736666461239585</v>
+        <v>8.239713270774969</v>
       </c>
       <c r="K15">
-        <v>11.79380537796615</v>
+        <v>11.07719003526436</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.02295223927434</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.749255626779818</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.59619437587454</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.94151894566203</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.41940503864491</v>
+      </c>
+      <c r="R15">
+        <v>12.26796743600883</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.50526232249604</v>
+        <v>21.87894200116253</v>
       </c>
       <c r="C16">
-        <v>17.36839159587227</v>
+        <v>17.52656552073743</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.76160702750599</v>
+        <v>8.48821603164507</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>25.9146640270239</v>
+        <v>24.34979616270629</v>
       </c>
       <c r="H16">
-        <v>6.6321859699827</v>
+        <v>6.607422356324263</v>
       </c>
       <c r="I16">
-        <v>3.754554806392706</v>
+        <v>3.653548443922086</v>
       </c>
       <c r="J16">
-        <v>8.71213138041389</v>
+        <v>8.697965664669265</v>
       </c>
       <c r="K16">
-        <v>11.86750351858941</v>
+        <v>11.29168674917032</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.21621810089561</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.784794536439892</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.33931613824305</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.98250532149746</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.21818395061002</v>
+      </c>
+      <c r="R16">
+        <v>12.23783668933975</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.1047477018051</v>
+        <v>21.51600193825645</v>
       </c>
       <c r="C17">
-        <v>17.1845193600764</v>
+        <v>17.41702961252076</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.440533573028834</v>
+        <v>8.203900614186697</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>26.53329110550999</v>
+        <v>24.62442419196747</v>
       </c>
       <c r="H17">
-        <v>5.901725551064853</v>
+        <v>5.877136226319749</v>
       </c>
       <c r="I17">
-        <v>3.691622635886445</v>
+        <v>3.602867130858749</v>
       </c>
       <c r="J17">
-        <v>8.885749564466854</v>
+        <v>9.051567954728904</v>
       </c>
       <c r="K17">
-        <v>12.18471351116412</v>
+        <v>11.61687853357938</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.46144709949629</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.989681069368421</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.02288954847922</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.92864304388047</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.92093503391793</v>
+      </c>
+      <c r="R17">
+        <v>12.14627631681024</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.98005490373142</v>
+        <v>21.36776029982716</v>
       </c>
       <c r="C18">
-        <v>17.27985474308165</v>
+        <v>17.57787208939605</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.894111312854239</v>
+        <v>8.707482039332204</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>28.30719115168319</v>
+        <v>26.11192164744744</v>
       </c>
       <c r="H18">
-        <v>4.752501185586318</v>
+        <v>4.722354384863178</v>
       </c>
       <c r="I18">
-        <v>3.67073422926804</v>
+        <v>3.584255072170421</v>
       </c>
       <c r="J18">
-        <v>9.260064723534704</v>
+        <v>9.453403422092062</v>
       </c>
       <c r="K18">
-        <v>12.77709340993031</v>
+        <v>12.1253862136221</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.81828037735753</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.396565366301087</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.60736169844124</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.8023573533155</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.50461395937078</v>
+      </c>
+      <c r="R18">
+        <v>11.9941816482909</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.05473560010011</v>
+        <v>21.38051752653439</v>
       </c>
       <c r="C19">
-        <v>17.62615812529872</v>
+        <v>17.98860116417094</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.02403753539976</v>
+        <v>10.90460151613917</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>30.71958363001256</v>
+        <v>28.25296580920259</v>
       </c>
       <c r="H19">
-        <v>3.553795491616631</v>
+        <v>3.50954700660765</v>
       </c>
       <c r="I19">
-        <v>3.694526345647779</v>
+        <v>3.604486190126296</v>
       </c>
       <c r="J19">
-        <v>9.744408571810688</v>
+        <v>9.882413819606677</v>
       </c>
       <c r="K19">
-        <v>13.51647452232621</v>
+        <v>12.72646595826654</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.22895773934353</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>7.912397427033622</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.77623788009736</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.66358374012325</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.66096654364421</v>
+      </c>
+      <c r="R19">
+        <v>11.83199133488955</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.74344302125452</v>
+        <v>21.90704569433408</v>
       </c>
       <c r="C20">
-        <v>18.58704926446836</v>
+        <v>19.01232539606987</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.99466299447714</v>
+        <v>15.94843569911538</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>34.94920222883916</v>
+        <v>32.23228727378186</v>
       </c>
       <c r="H20">
-        <v>2.935729432133213</v>
+        <v>2.860293889244371</v>
       </c>
       <c r="I20">
-        <v>3.833536620228808</v>
+        <v>3.719503473290066</v>
       </c>
       <c r="J20">
-        <v>10.55659001389357</v>
+        <v>10.39894712939797</v>
       </c>
       <c r="K20">
-        <v>14.71609193456118</v>
+        <v>13.62472543545976</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.78347532484267</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.794540732364624</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.38926950912326</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.46145890106849</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.22973555806137</v>
+      </c>
+      <c r="R20">
+        <v>11.60330977642557</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.15005021946752</v>
+        <v>23.0294641752836</v>
       </c>
       <c r="C21">
-        <v>19.73992435258644</v>
+        <v>19.91713920845192</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>17.20843482623703</v>
+        <v>17.21734587905546</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>37.04508182349137</v>
+        <v>35.49376788576135</v>
       </c>
       <c r="H21">
-        <v>3.240891764689715</v>
+        <v>3.136194418556719</v>
       </c>
       <c r="I21">
-        <v>4.0724901383055</v>
+        <v>3.907745153662504</v>
       </c>
       <c r="J21">
-        <v>10.86673863587806</v>
+        <v>9.489595349140986</v>
       </c>
       <c r="K21">
-        <v>15.01708773850345</v>
+        <v>13.49402996955902</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.50962173976184</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.024481925532832</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.78488463958268</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.26899130403877</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.50031510125307</v>
+      </c>
+      <c r="R21">
+        <v>11.48814925635354</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.03744823782564</v>
+        <v>23.73286824907463</v>
       </c>
       <c r="C22">
-        <v>20.41988482286138</v>
+        <v>20.42196321017494</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>17.73347500105919</v>
+        <v>17.7800326381304</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>38.29165196994401</v>
+        <v>37.57312092053417</v>
       </c>
       <c r="H22">
-        <v>3.424265670178418</v>
+        <v>3.300815937175627</v>
       </c>
       <c r="I22">
-        <v>4.221489230612407</v>
+        <v>4.023046802873436</v>
       </c>
       <c r="J22">
-        <v>11.05242711127331</v>
+        <v>8.853839859382816</v>
       </c>
       <c r="K22">
-        <v>15.19809703987145</v>
+        <v>13.38075985073249</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.31476212325822</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.157296016492074</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.51634232969844</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.14718119187087</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.14804944274286</v>
+      </c>
+      <c r="R22">
+        <v>11.42536992268698</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.58838229749876</v>
+        <v>23.3997755235606</v>
       </c>
       <c r="C23">
-        <v>20.04222072375361</v>
+        <v>20.17226709530981</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17.4534850491816</v>
+        <v>17.47166285226602</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>37.70410010043497</v>
+        <v>36.37902357817838</v>
       </c>
       <c r="H23">
-        <v>3.327509187615089</v>
+        <v>3.215041414125947</v>
       </c>
       <c r="I23">
-        <v>4.140536637184717</v>
+        <v>3.960136549249508</v>
       </c>
       <c r="J23">
-        <v>10.96930677346303</v>
+        <v>9.322392159841051</v>
       </c>
       <c r="K23">
-        <v>15.13435060350566</v>
+        <v>13.50103002786966</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.45660267583601</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.138518722278954</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.13219338282853</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.2102420694049</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.81945697821816</v>
+      </c>
+      <c r="R23">
+        <v>11.45006027142744</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.77364361235309</v>
+        <v>21.93093710038394</v>
       </c>
       <c r="C24">
-        <v>18.58622179954612</v>
+        <v>19.02026705233312</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.35924912798964</v>
+        <v>16.31664602915796</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>35.30999293874263</v>
+        <v>32.55205414975285</v>
       </c>
       <c r="H24">
-        <v>2.953233396450412</v>
+        <v>2.877347220599339</v>
       </c>
       <c r="I24">
-        <v>3.832286687047214</v>
+        <v>3.715756554113437</v>
       </c>
       <c r="J24">
-        <v>10.63291760994194</v>
+        <v>10.47430059167466</v>
       </c>
       <c r="K24">
-        <v>14.85123004824597</v>
+        <v>13.74181438256235</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.86567875424361</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.89043427397856</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.61275053579854</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.45417927083788</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.45235771144166</v>
+      </c>
+      <c r="R24">
+        <v>11.58843873610249</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.64134221469188</v>
+        <v>19.96723805471645</v>
       </c>
       <c r="C25">
-        <v>16.90064341869132</v>
+        <v>17.26956622229444</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.10174510992994</v>
+        <v>15.08200975921221</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>32.62968391419061</v>
+        <v>30.11381922197188</v>
       </c>
       <c r="H25">
-        <v>2.534574296317964</v>
+        <v>2.485071738818052</v>
       </c>
       <c r="I25">
-        <v>3.491072508210225</v>
+        <v>3.42639904043553</v>
       </c>
       <c r="J25">
-        <v>10.28026476828684</v>
+        <v>10.31881401505357</v>
       </c>
       <c r="K25">
-        <v>14.57150439910853</v>
+        <v>13.68026684444985</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.09067166447208</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.385111047615776</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.84830699407472</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.72169957926663</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>18.72874575339389</v>
+      </c>
+      <c r="R25">
+        <v>11.79211126336843</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
